--- a/Computer/OpCodes_v3.xlsx
+++ b/Computer/OpCodes_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8857395E-41D9-4EA7-89A0-4BDDB3AADB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8B8BFE-35BD-4C41-8C8A-9A061DB16E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3B601499-BEB0-4D14-81EA-17F4CFBCBA4B}"/>
   </bookViews>
@@ -2607,10 +2607,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SALT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SALZ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2639,10 +2635,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SAWT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SAWZ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2784,6 +2776,14 @@
   </si>
   <si>
     <t>SBWP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SALY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAWY</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4413,8 +4413,8 @@
   </sheetPr>
   <dimension ref="B2:V299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="K169" sqref="K169"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5706,7 +5706,7 @@
         <v>415</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="2:11">
@@ -5723,7 +5723,7 @@
         <v>416</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="2:11">
@@ -8149,7 +8149,7 @@
         <v>1011</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>681</v>
+        <v>724</v>
       </c>
       <c r="H204" s="9"/>
       <c r="J204" s="9"/>
@@ -8168,7 +8168,7 @@
         <v>1100</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H205" s="9"/>
       <c r="J205" s="9"/>
@@ -8187,7 +8187,7 @@
         <v>1101</v>
       </c>
       <c r="G206" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H206" s="9"/>
       <c r="J206" s="9"/>
@@ -8206,7 +8206,7 @@
         <v>1110</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H207" s="9"/>
       <c r="J207" s="9"/>
@@ -8225,7 +8225,7 @@
         <v>1111</v>
       </c>
       <c r="G208" s="13" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H208" s="9"/>
       <c r="J208" s="9"/>
@@ -8421,7 +8421,7 @@
         <v>1000</v>
       </c>
       <c r="G219" s="13" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H219" s="9"/>
       <c r="J219" s="9"/>
@@ -8440,7 +8440,7 @@
         <v>1001</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H220" s="9"/>
       <c r="J220" s="9"/>
@@ -8459,7 +8459,7 @@
         <v>1010</v>
       </c>
       <c r="G221" s="13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H221" s="9"/>
       <c r="J221" s="9"/>
@@ -8478,7 +8478,7 @@
         <v>1011</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>689</v>
+        <v>725</v>
       </c>
       <c r="H222" s="9"/>
       <c r="J222" s="9"/>
@@ -8497,7 +8497,7 @@
         <v>1100</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H223" s="9"/>
       <c r="J223" s="9"/>
@@ -8516,7 +8516,7 @@
         <v>1101</v>
       </c>
       <c r="G224" s="13" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H224" s="9"/>
       <c r="J224" s="9"/>
@@ -8535,7 +8535,7 @@
         <v>1110</v>
       </c>
       <c r="G225" s="13" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H225" s="9"/>
       <c r="J225" s="9"/>
@@ -8554,7 +8554,7 @@
         <v>1111</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H226" s="9"/>
       <c r="J226" s="9"/>
@@ -8750,7 +8750,7 @@
         <v>1000</v>
       </c>
       <c r="G237" s="13" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H237" s="9"/>
       <c r="J237" s="9"/>
@@ -8769,7 +8769,7 @@
         <v>1001</v>
       </c>
       <c r="G238" s="13" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H238" s="9"/>
       <c r="J238" s="9"/>
@@ -8788,7 +8788,7 @@
         <v>1010</v>
       </c>
       <c r="G239" s="13" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H239" s="9"/>
       <c r="J239" s="9"/>
@@ -8807,7 +8807,7 @@
         <v>1011</v>
       </c>
       <c r="G240" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H240" s="9"/>
       <c r="J240" s="9"/>
@@ -8826,7 +8826,7 @@
         <v>1100</v>
       </c>
       <c r="G241" s="13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H241" s="9"/>
       <c r="J241" s="9"/>
@@ -8845,7 +8845,7 @@
         <v>1101</v>
       </c>
       <c r="G242" s="13" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H242" s="9"/>
       <c r="J242" s="9"/>
@@ -8864,7 +8864,7 @@
         <v>1110</v>
       </c>
       <c r="G243" s="13" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H243" s="9"/>
       <c r="J243" s="9"/>
@@ -8883,7 +8883,7 @@
         <v>1111</v>
       </c>
       <c r="G244" s="13" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H244" s="9"/>
       <c r="J244" s="9"/>
@@ -9082,7 +9082,7 @@
         <v>1000</v>
       </c>
       <c r="G255" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H255" s="9"/>
       <c r="J255" s="9"/>
@@ -9101,7 +9101,7 @@
         <v>1001</v>
       </c>
       <c r="G256" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H256" s="9"/>
       <c r="J256" s="9"/>
@@ -9120,7 +9120,7 @@
         <v>1010</v>
       </c>
       <c r="G257" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H257" s="9"/>
       <c r="J257" s="9"/>
@@ -9139,7 +9139,7 @@
         <v>1011</v>
       </c>
       <c r="G258" s="13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H258" s="9"/>
       <c r="J258" s="9"/>
@@ -9158,7 +9158,7 @@
         <v>1100</v>
       </c>
       <c r="G259" s="13" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H259" s="9"/>
       <c r="J259" s="9"/>
@@ -9177,7 +9177,7 @@
         <v>1101</v>
       </c>
       <c r="G260" s="13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H260" s="9"/>
       <c r="J260" s="9"/>
@@ -9196,7 +9196,7 @@
         <v>1110</v>
       </c>
       <c r="G261" s="13" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H261" s="9"/>
       <c r="J261" s="9"/>
@@ -9215,7 +9215,7 @@
         <v>1111</v>
       </c>
       <c r="G262" s="13" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H262" s="9"/>
       <c r="J262" s="9"/>
@@ -9414,7 +9414,7 @@
         <v>1000</v>
       </c>
       <c r="G273" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H273" s="9"/>
       <c r="J273" s="9"/>
@@ -9433,7 +9433,7 @@
         <v>1001</v>
       </c>
       <c r="G274" s="13" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H274" s="9"/>
       <c r="J274" s="9"/>
@@ -9452,7 +9452,7 @@
         <v>1010</v>
       </c>
       <c r="G275" s="13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H275" s="9"/>
       <c r="J275" s="9"/>
@@ -9471,7 +9471,7 @@
         <v>1011</v>
       </c>
       <c r="G276" s="13" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H276" s="9"/>
       <c r="J276" s="9"/>
@@ -9490,7 +9490,7 @@
         <v>1100</v>
       </c>
       <c r="G277" s="13" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H277" s="9"/>
       <c r="J277" s="9"/>
@@ -9509,7 +9509,7 @@
         <v>1101</v>
       </c>
       <c r="G278" s="13" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H278" s="9"/>
       <c r="J278" s="9"/>
@@ -9528,7 +9528,7 @@
         <v>1110</v>
       </c>
       <c r="G279" s="13" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H279" s="9"/>
       <c r="J279" s="9"/>
@@ -9547,7 +9547,7 @@
         <v>1111</v>
       </c>
       <c r="G280" s="13" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H280" s="9"/>
       <c r="J280" s="9"/>
@@ -9746,7 +9746,7 @@
         <v>1000</v>
       </c>
       <c r="G291" s="13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H291" s="9"/>
       <c r="J291" s="9"/>
@@ -9765,7 +9765,7 @@
         <v>1001</v>
       </c>
       <c r="G292" s="13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H292" s="9"/>
       <c r="J292" s="9"/>
@@ -9784,7 +9784,7 @@
         <v>1010</v>
       </c>
       <c r="G293" s="13" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H293" s="9"/>
       <c r="J293" s="9"/>
@@ -9803,7 +9803,7 @@
         <v>1011</v>
       </c>
       <c r="G294" s="13" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H294" s="9"/>
       <c r="J294" s="9"/>
@@ -9822,7 +9822,7 @@
         <v>1100</v>
       </c>
       <c r="G295" s="13" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H295" s="9"/>
       <c r="J295" s="9"/>
@@ -9841,7 +9841,7 @@
         <v>1101</v>
       </c>
       <c r="G296" s="13" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H296" s="9"/>
       <c r="J296" s="9"/>
@@ -9860,7 +9860,7 @@
         <v>1110</v>
       </c>
       <c r="G297" s="13" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H297" s="9"/>
       <c r="J297" s="9"/>
@@ -9879,7 +9879,7 @@
         <v>1111</v>
       </c>
       <c r="G298" s="13" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H298" s="9"/>
       <c r="J298" s="9"/>

--- a/Computer/OpCodes_v3.xlsx
+++ b/Computer/OpCodes_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8B8BFE-35BD-4C41-8C8A-9A061DB16E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A208BA-6334-489B-810C-2340AD697472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3B601499-BEB0-4D14-81EA-17F4CFBCBA4B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="728">
   <si>
     <t>PC</t>
     <phoneticPr fontId="1"/>
@@ -2784,6 +2784,14 @@
   </si>
   <si>
     <t>SAWY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STAW?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STBW?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2988,10 +2996,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3699,20 +3707,20 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="32"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
@@ -3749,18 +3757,18 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
       <c r="M7" t="s">
         <v>104</v>
       </c>
@@ -3785,18 +3793,18 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
       <c r="M10" t="s">
         <v>109</v>
       </c>
@@ -3825,18 +3833,18 @@
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
       <c r="M13" t="s">
         <v>112</v>
       </c>
@@ -3914,18 +3922,18 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
       <c r="M20" t="s">
         <v>118</v>
       </c>
@@ -3993,18 +4001,18 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="2" t="s">
@@ -4138,18 +4146,18 @@
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="3" t="s">
@@ -4366,6 +4374,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="B10:K10"/>
@@ -4382,23 +4407,6 @@
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:I28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4413,8 +4421,8 @@
   </sheetPr>
   <dimension ref="B2:V299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4445,11 +4453,11 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
       <c r="H2" s="37"/>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>495</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="10"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -4682,18 +4690,18 @@
       <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
       <c r="L12" s="10"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -8247,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="G210" s="13" t="s">
-        <v>533</v>
+        <v>726</v>
       </c>
       <c r="H210" s="19" t="s">
         <v>464</v>
@@ -9572,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="G282" s="13" t="s">
-        <v>553</v>
+        <v>727</v>
       </c>
       <c r="H282" s="19" t="s">
         <v>464</v>

--- a/Computer/OpCodes_v3.xlsx
+++ b/Computer/OpCodes_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A208BA-6334-489B-810C-2340AD697472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F68E4B-F1BF-48E1-8E48-9D6631320A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3B601499-BEB0-4D14-81EA-17F4CFBCBA4B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="729">
   <si>
     <t>PC</t>
     <phoneticPr fontId="1"/>
@@ -673,10 +673,6 @@
   </si>
   <si>
     <t>0f</t>
-  </si>
-  <si>
-    <t>??</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>PC+N</t>
@@ -2792,6 +2788,14 @@
   </si>
   <si>
     <t>STBW?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SYSRET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Return from Syscall (pops a byte, then the new value of rt, then a byte, then the new ipl)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2996,10 +3000,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3362,7 +3366,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
@@ -3494,7 +3498,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>60</v>
@@ -3517,7 +3521,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -3531,7 +3535,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -3542,7 +3546,7 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="31" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -3707,20 +3711,20 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
@@ -3757,18 +3761,18 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
       <c r="M7" t="s">
         <v>104</v>
       </c>
@@ -3793,18 +3797,18 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
       <c r="M10" t="s">
         <v>109</v>
       </c>
@@ -3833,18 +3837,18 @@
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
       <c r="M13" t="s">
         <v>112</v>
       </c>
@@ -3922,18 +3926,18 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
       <c r="M20" t="s">
         <v>118</v>
       </c>
@@ -4001,18 +4005,18 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="2" t="s">
@@ -4026,7 +4030,7 @@
       </c>
       <c r="F27" s="29"/>
       <c r="K27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="2:13">
@@ -4044,7 +4048,7 @@
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="K28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -4062,7 +4066,7 @@
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
       <c r="K29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -4080,7 +4084,7 @@
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="K30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="2:13">
@@ -4146,18 +4150,18 @@
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="3" t="s">
@@ -4176,7 +4180,7 @@
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
       <c r="K37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -4189,7 +4193,7 @@
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
       <c r="K38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -4202,7 +4206,7 @@
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
       <c r="K39" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -4223,7 +4227,7 @@
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
       <c r="K41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="42" spans="2:11">
@@ -4236,7 +4240,7 @@
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="K42" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -4249,7 +4253,7 @@
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
       <c r="K43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -4272,7 +4276,7 @@
       </c>
       <c r="I45" s="29"/>
       <c r="K45" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -4287,7 +4291,7 @@
       </c>
       <c r="I46" s="29"/>
       <c r="K46" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="47" spans="2:11">
@@ -4302,7 +4306,7 @@
       </c>
       <c r="I47" s="29"/>
       <c r="K47" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="48" spans="2:11">
@@ -4325,7 +4329,7 @@
       </c>
       <c r="I49" s="29"/>
       <c r="K49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="50" spans="2:11">
@@ -4340,7 +4344,7 @@
       </c>
       <c r="I50" s="29"/>
       <c r="K50" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="51" spans="2:11">
@@ -4362,7 +4366,7 @@
       </c>
       <c r="I51" s="29"/>
       <c r="K51" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="52" spans="2:11">
@@ -4374,23 +4378,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="B10:K10"/>
@@ -4407,6 +4394,23 @@
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:I28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4421,7 +4425,7 @@
   </sheetPr>
   <dimension ref="B2:V299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -4445,7 +4449,7 @@
   <sheetData>
     <row r="2" spans="2:19">
       <c r="B2" s="36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -4453,11 +4457,11 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
       <c r="H2" s="37"/>
-      <c r="I2" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
       <c r="L2" s="10"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -4475,18 +4479,18 @@
         <v>47</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H3" s="35"/>
       <c r="I3" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -4506,7 +4510,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="35"/>
@@ -4515,7 +4519,7 @@
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
@@ -4532,17 +4536,17 @@
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="34"/>
       <c r="H5" s="35"/>
       <c r="I5" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
@@ -4562,16 +4566,16 @@
         <v>54</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="35"/>
       <c r="I6" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
@@ -4591,16 +4595,16 @@
         <v>57</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="35"/>
       <c r="I7" s="26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -4611,7 +4615,7 @@
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>6</v>
@@ -4620,16 +4624,16 @@
         <v>60</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
       <c r="I8" s="26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -4640,7 +4644,7 @@
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
@@ -4659,7 +4663,7 @@
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>8</v>
@@ -4690,18 +4694,18 @@
       <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="33" t="s">
-        <v>608</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
+      <c r="B12" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
       <c r="L12" s="10"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -4719,13 +4723,13 @@
       <c r="E13" s="38"/>
       <c r="F13" s="24"/>
       <c r="G13" s="25" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H13" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>400</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>401</v>
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="25" t="s">
@@ -5113,7 +5117,10 @@
         <v>1111</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>161</v>
+        <v>727</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>728</v>
       </c>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
@@ -5143,10 +5150,10 @@
         <v>52</v>
       </c>
       <c r="H31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K31" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="O31" s="12"/>
     </row>
@@ -5161,13 +5168,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K32" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="O32" s="12"/>
     </row>
@@ -5182,13 +5189,13 @@
         <v>10</v>
       </c>
       <c r="G33" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="O33" s="12"/>
     </row>
@@ -5203,13 +5210,13 @@
         <v>11</v>
       </c>
       <c r="G34" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K34" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="O34" s="12"/>
     </row>
@@ -5224,13 +5231,13 @@
         <v>100</v>
       </c>
       <c r="G35" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="K35" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="O35" s="12"/>
     </row>
@@ -5245,13 +5252,13 @@
         <v>101</v>
       </c>
       <c r="G36" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K36" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="O36" s="12"/>
     </row>
@@ -5266,13 +5273,13 @@
         <v>110</v>
       </c>
       <c r="G37" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K37" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="O37" s="12"/>
     </row>
@@ -5287,13 +5294,13 @@
         <v>111</v>
       </c>
       <c r="G38" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K38" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="O38" s="12"/>
     </row>
@@ -5308,13 +5315,13 @@
         <v>1000</v>
       </c>
       <c r="G39" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K39" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="O39" s="12"/>
     </row>
@@ -5329,19 +5336,19 @@
         <v>1001</v>
       </c>
       <c r="G40" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K40" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="O40" s="12"/>
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D41" s="12">
         <v>1</v>
@@ -5350,19 +5357,19 @@
         <v>1010</v>
       </c>
       <c r="G41" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="O41" s="12"/>
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D42" s="12">
         <v>1</v>
@@ -5371,19 +5378,19 @@
         <v>1011</v>
       </c>
       <c r="G42" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K42" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="O42" s="12"/>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D43" s="12">
         <v>1</v>
@@ -5392,19 +5399,19 @@
         <v>1100</v>
       </c>
       <c r="G43" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K43" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="O43" s="12"/>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D44" s="12">
         <v>1</v>
@@ -5413,19 +5420,19 @@
         <v>1101</v>
       </c>
       <c r="G44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K44" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="O44" s="12"/>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D45" s="12">
         <v>1</v>
@@ -5434,19 +5441,19 @@
         <v>1110</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O45" s="12"/>
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D46" s="12">
         <v>1</v>
@@ -5455,13 +5462,13 @@
         <v>1111</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O46" s="12"/>
     </row>
@@ -5480,13 +5487,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H48" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="K48" s="8" t="s">
         <v>633</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="49" spans="2:11">
@@ -5500,13 +5507,13 @@
         <v>1</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" spans="2:11">
@@ -5520,13 +5527,13 @@
         <v>10</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="51" spans="2:11">
@@ -5540,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" spans="2:11">
@@ -5560,13 +5567,13 @@
         <v>100</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="53" spans="2:11">
@@ -5580,13 +5587,13 @@
         <v>101</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -5600,13 +5607,13 @@
         <v>110</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="55" spans="2:11">
@@ -5620,13 +5627,13 @@
         <v>111</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="6.75" customHeight="1">
@@ -5643,10 +5650,10 @@
         <v>1000</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="2:11">
@@ -5660,15 +5667,15 @@
         <v>1001</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D59" s="12">
         <v>10</v>
@@ -5677,15 +5684,15 @@
         <v>1010</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D60" s="12">
         <v>10</v>
@@ -5694,15 +5701,15 @@
         <v>1011</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D61" s="12">
         <v>10</v>
@@ -5711,15 +5718,15 @@
         <v>1100</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D62" s="12">
         <v>10</v>
@@ -5728,15 +5735,15 @@
         <v>1101</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D63" s="12">
         <v>10</v>
@@ -5745,15 +5752,15 @@
         <v>1110</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D64" s="12">
         <v>10</v>
@@ -5762,10 +5769,10 @@
         <v>1111</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="2:11" ht="6.75" customHeight="1">
@@ -5782,13 +5789,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H66" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="K66" s="8" t="s">
         <v>642</v>
-      </c>
-      <c r="K66" s="8" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -5802,13 +5809,13 @@
         <v>1</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -5822,13 +5829,13 @@
         <v>10</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -5842,13 +5849,13 @@
         <v>11</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -5862,13 +5869,13 @@
         <v>100</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -5882,13 +5889,13 @@
         <v>101</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="72" spans="2:11">
@@ -5902,13 +5909,13 @@
         <v>110</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -5922,13 +5929,13 @@
         <v>111</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="74" spans="2:11" ht="6.75" customHeight="1">
@@ -5945,10 +5952,10 @@
         <v>1000</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="76" spans="2:11">
@@ -5962,15 +5969,15 @@
         <v>1001</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D77" s="12">
         <v>11</v>
@@ -5979,15 +5986,15 @@
         <v>1010</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D78" s="12">
         <v>11</v>
@@ -5996,15 +6003,15 @@
         <v>1011</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D79" s="12">
         <v>11</v>
@@ -6013,15 +6020,15 @@
         <v>1100</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D80" s="12">
         <v>11</v>
@@ -6030,15 +6037,15 @@
         <v>1101</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D81" s="12">
         <v>11</v>
@@ -6047,15 +6054,15 @@
         <v>1110</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D82" s="12">
         <v>11</v>
@@ -6064,10 +6071,10 @@
         <v>1111</v>
       </c>
       <c r="G82" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="K82" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="7.5" customHeight="1">
@@ -6084,13 +6091,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="K84" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="K84" s="8" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="85" spans="2:11">
@@ -6104,13 +6111,13 @@
         <v>1</v>
       </c>
       <c r="G85" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="K85" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="K85" s="8" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="86" spans="2:11">
@@ -6124,13 +6131,13 @@
         <v>10</v>
       </c>
       <c r="G86" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="K86" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="K86" s="8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="87" spans="2:11">
@@ -6144,13 +6151,13 @@
         <v>11</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="2:11">
@@ -6164,13 +6171,13 @@
         <v>100</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="2:11">
@@ -6184,13 +6191,13 @@
         <v>101</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="2:11">
@@ -6204,7 +6211,7 @@
         <v>110</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" spans="2:11">
@@ -6218,10 +6225,10 @@
         <v>111</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="2:11" ht="7.5" customHeight="1">
@@ -6238,10 +6245,10 @@
         <v>1000</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="2:11">
@@ -6255,15 +6262,15 @@
         <v>1001</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D95" s="12">
         <v>100</v>
@@ -6272,15 +6279,15 @@
         <v>1010</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="2:11">
       <c r="B96" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D96" s="12">
         <v>100</v>
@@ -6289,15 +6296,15 @@
         <v>1011</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D97" s="12">
         <v>100</v>
@@ -6306,15 +6313,15 @@
         <v>1100</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D98" s="12">
         <v>100</v>
@@ -6323,15 +6330,15 @@
         <v>1101</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D99" s="12">
         <v>100</v>
@@ -6340,15 +6347,15 @@
         <v>1110</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D100" s="12">
         <v>100</v>
@@ -6357,10 +6364,10 @@
         <v>1111</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="101" spans="2:11" ht="6.75" customHeight="1">
@@ -6377,13 +6384,13 @@
         <v>0</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="2:11">
@@ -6397,13 +6404,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="2:11">
@@ -6417,13 +6424,13 @@
         <v>10</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" spans="2:11">
@@ -6437,13 +6444,13 @@
         <v>11</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="2:11">
@@ -6457,13 +6464,13 @@
         <v>100</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="2:11">
@@ -6477,13 +6484,13 @@
         <v>101</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="2:11">
@@ -6497,7 +6504,7 @@
         <v>110</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="109" spans="2:11">
@@ -6511,7 +6518,7 @@
         <v>111</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="110" spans="2:11" ht="7.5" customHeight="1">
@@ -6528,10 +6535,10 @@
         <v>1000</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="2:11">
@@ -6545,15 +6552,15 @@
         <v>1001</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="2:11">
       <c r="B113" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D113" s="12">
         <v>101</v>
@@ -6562,15 +6569,15 @@
         <v>1010</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="2:11">
       <c r="B114" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D114" s="12">
         <v>101</v>
@@ -6579,15 +6586,15 @@
         <v>1011</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="115" spans="2:11">
       <c r="B115" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D115" s="12">
         <v>101</v>
@@ -6596,15 +6603,15 @@
         <v>1100</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="116" spans="2:11">
       <c r="B116" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D116" s="12">
         <v>101</v>
@@ -6613,15 +6620,15 @@
         <v>1101</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K116" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="117" spans="2:11">
       <c r="B117" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D117" s="12">
         <v>101</v>
@@ -6630,15 +6637,15 @@
         <v>1110</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="118" spans="2:11">
       <c r="B118" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D118" s="12">
         <v>101</v>
@@ -6647,10 +6654,10 @@
         <v>1111</v>
       </c>
       <c r="G118" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="K118" s="10" t="s">
         <v>457</v>
-      </c>
-      <c r="K118" s="10" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="119" spans="2:11" ht="7.5" customHeight="1">
@@ -6667,16 +6674,16 @@
         <v>0</v>
       </c>
       <c r="G120" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="H120" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="H120" s="9" t="s">
+      <c r="I120" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="I120" s="26" t="s">
-        <v>465</v>
-      </c>
       <c r="K120" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="121" spans="2:11">
@@ -6690,16 +6697,16 @@
         <v>1</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>96</v>
       </c>
       <c r="I121" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="122" spans="2:11">
@@ -6713,16 +6720,16 @@
         <v>10</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H122" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="I122" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="I122" s="26" t="s">
-        <v>468</v>
-      </c>
       <c r="K122" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="123" spans="2:11">
@@ -6736,13 +6743,13 @@
         <v>11</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="124" spans="2:11">
@@ -6756,13 +6763,13 @@
         <v>100</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="125" spans="2:11">
@@ -6776,16 +6783,16 @@
         <v>101</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I125" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="2:11">
@@ -6799,7 +6806,7 @@
         <v>110</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="127" spans="2:11">
@@ -6813,7 +6820,7 @@
         <v>111</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="128" spans="2:11" ht="6.75" customHeight="1">
@@ -6832,17 +6839,17 @@
       </c>
       <c r="F129" s="17"/>
       <c r="G129" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H129" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="I129" s="19" t="s">
         <v>464</v>
-      </c>
-      <c r="I129" s="19" t="s">
-        <v>465</v>
       </c>
       <c r="J129" s="19"/>
       <c r="K129" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="130" spans="2:11">
@@ -6856,21 +6863,21 @@
         <v>1001</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I130" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="131" spans="2:11">
       <c r="B131" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D131" s="12">
         <v>110</v>
@@ -6879,21 +6886,21 @@
         <v>1010</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H131" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="I131" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="I131" s="26" t="s">
-        <v>468</v>
-      </c>
       <c r="K131" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="132" spans="2:11">
       <c r="B132" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D132" s="12">
         <v>110</v>
@@ -6902,18 +6909,18 @@
         <v>1011</v>
       </c>
       <c r="G132" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="133" spans="2:11">
       <c r="B133" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D133" s="12">
         <v>110</v>
@@ -6922,18 +6929,18 @@
         <v>1100</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="134" spans="2:11">
       <c r="B134" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D134" s="12">
         <v>110</v>
@@ -6942,21 +6949,21 @@
         <v>1101</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I134" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="135" spans="2:11">
       <c r="B135" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D135" s="12">
         <v>110</v>
@@ -6965,12 +6972,12 @@
         <v>1110</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D136" s="12">
         <v>110</v>
@@ -6979,7 +6986,7 @@
         <v>1111</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="137" spans="2:11" ht="6.75" customHeight="1">
@@ -6996,16 +7003,16 @@
         <v>0</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H138" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="I138" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="I138" s="19" t="s">
-        <v>465</v>
-      </c>
       <c r="K138" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="139" spans="2:11">
@@ -7019,16 +7026,16 @@
         <v>1</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H139" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I139" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" spans="2:11">
@@ -7042,16 +7049,16 @@
         <v>10</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H140" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="I140" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="I140" s="26" t="s">
-        <v>468</v>
-      </c>
       <c r="K140" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="2:11">
@@ -7065,13 +7072,13 @@
         <v>11</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K141" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="2:11">
@@ -7085,13 +7092,13 @@
         <v>100</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="2:11">
@@ -7105,16 +7112,16 @@
         <v>101</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I143" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" spans="2:11">
@@ -7128,10 +7135,10 @@
         <v>110</v>
       </c>
       <c r="G144" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="K144" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="K144" s="8" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="145" spans="2:11">
@@ -7160,16 +7167,16 @@
         <v>1000</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H147" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="I147" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="I147" s="19" t="s">
-        <v>465</v>
-      </c>
       <c r="K147" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="148" spans="2:11">
@@ -7183,21 +7190,21 @@
         <v>1001</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H148" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I148" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="149" spans="2:11">
       <c r="B149" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D149" s="12">
         <v>111</v>
@@ -7206,21 +7213,21 @@
         <v>1010</v>
       </c>
       <c r="G149" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="I149" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="K149" s="8" t="s">
         <v>497</v>
-      </c>
-      <c r="H149" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="I149" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="K149" s="8" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="150" spans="2:11">
       <c r="B150" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D150" s="12">
         <v>111</v>
@@ -7229,18 +7236,18 @@
         <v>1011</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K150" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="151" spans="2:11">
       <c r="B151" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D151" s="12">
         <v>111</v>
@@ -7249,18 +7256,18 @@
         <v>1100</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K151" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="152" spans="2:11">
       <c r="B152" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D152" s="12">
         <v>111</v>
@@ -7269,21 +7276,21 @@
         <v>1101</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I152" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K152" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="153" spans="2:11">
       <c r="B153" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D153" s="12">
         <v>111</v>
@@ -7293,12 +7300,12 @@
       </c>
       <c r="G153" s="15"/>
       <c r="K153" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" spans="2:11">
       <c r="B154" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D154" s="12">
         <v>111</v>
@@ -7308,7 +7315,7 @@
       </c>
       <c r="G154" s="15"/>
       <c r="K154" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155" spans="2:11" ht="7.5" customHeight="1">
@@ -7325,16 +7332,16 @@
         <v>0</v>
       </c>
       <c r="G156" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="H156" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="I156" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="K156" s="8" t="s">
         <v>504</v>
-      </c>
-      <c r="H156" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="I156" s="19" t="s">
-        <v>651</v>
-      </c>
-      <c r="K156" s="8" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="157" spans="2:11">
@@ -7348,16 +7355,16 @@
         <v>1</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H157" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I157" s="26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="158" spans="2:11">
@@ -7371,16 +7378,16 @@
         <v>10</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I158" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="159" spans="2:11">
@@ -7394,13 +7401,13 @@
         <v>11</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="160" spans="2:11">
@@ -7414,13 +7421,13 @@
         <v>100</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K160" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="161" spans="2:11">
@@ -7434,16 +7441,16 @@
         <v>101</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I161" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K161" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="2:11">
@@ -7484,10 +7491,10 @@
         <v>1000</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="166" spans="2:11">
@@ -7501,15 +7508,15 @@
         <v>1001</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K166" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="167" spans="2:11">
       <c r="B167" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D167" s="12">
         <v>1000</v>
@@ -7518,15 +7525,15 @@
         <v>1010</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K167" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="168" spans="2:11">
       <c r="B168" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D168" s="12">
         <v>1000</v>
@@ -7535,15 +7542,15 @@
         <v>1011</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="169" spans="2:11">
       <c r="B169" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D169" s="12">
         <v>1000</v>
@@ -7552,15 +7559,15 @@
         <v>1100</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K169" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="170" spans="2:11">
       <c r="B170" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D170" s="12">
         <v>1000</v>
@@ -7569,15 +7576,15 @@
         <v>1101</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K170" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="171" spans="2:11">
       <c r="B171" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D171" s="12">
         <v>1000</v>
@@ -7586,15 +7593,15 @@
         <v>1110</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K171" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="172" spans="2:11">
       <c r="B172" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D172" s="12">
         <v>1000</v>
@@ -7603,10 +7610,10 @@
         <v>1111</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K172" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="173" spans="2:11" ht="6.75" customHeight="1">
@@ -7623,17 +7630,17 @@
         <v>0</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H174" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="I174" s="19" t="s">
         <v>464</v>
-      </c>
-      <c r="I174" s="19" t="s">
-        <v>465</v>
       </c>
       <c r="J174" s="9"/>
       <c r="K174" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="175" spans="2:11">
@@ -7647,17 +7654,17 @@
         <v>1</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H175" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I175" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J175" s="9"/>
       <c r="K175" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="176" spans="2:11">
@@ -7671,17 +7678,17 @@
         <v>10</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H176" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="I176" s="26" t="s">
         <v>467</v>
-      </c>
-      <c r="I176" s="26" t="s">
-        <v>468</v>
       </c>
       <c r="J176" s="9"/>
       <c r="K176" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="177" spans="2:11">
@@ -7695,14 +7702,14 @@
         <v>11</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J177" s="9"/>
       <c r="K177" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="178" spans="2:11">
@@ -7716,14 +7723,14 @@
         <v>100</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J178" s="9"/>
       <c r="K178" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="179" spans="2:11">
@@ -7737,17 +7744,17 @@
         <v>101</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I179" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J179" s="9"/>
       <c r="K179" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="180" spans="2:11">
@@ -7788,11 +7795,11 @@
         <v>1000</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H183" s="9"/>
       <c r="K183" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="184" spans="2:11">
@@ -7806,16 +7813,16 @@
         <v>1001</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H184" s="9"/>
       <c r="K184" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="185" spans="2:11">
       <c r="B185" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D185" s="12">
         <v>1001</v>
@@ -7824,16 +7831,16 @@
         <v>1010</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H185" s="9"/>
       <c r="K185" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="186" spans="2:11">
       <c r="B186" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D186" s="12">
         <v>1001</v>
@@ -7842,16 +7849,16 @@
         <v>1011</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H186" s="9"/>
       <c r="K186" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="187" spans="2:11">
       <c r="B187" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D187" s="12">
         <v>1001</v>
@@ -7860,16 +7867,16 @@
         <v>1100</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H187" s="9"/>
       <c r="K187" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="188" spans="2:11">
       <c r="B188" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D188" s="12">
         <v>1001</v>
@@ -7878,16 +7885,16 @@
         <v>1101</v>
       </c>
       <c r="G188" s="13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H188" s="9"/>
       <c r="K188" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="189" spans="2:11">
       <c r="B189" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D189" s="12">
         <v>1001</v>
@@ -7896,16 +7903,16 @@
         <v>1110</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H189" s="9"/>
       <c r="K189" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="190" spans="2:11">
       <c r="B190" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D190" s="12">
         <v>1001</v>
@@ -7914,11 +7921,11 @@
         <v>1111</v>
       </c>
       <c r="G190" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H190" s="9"/>
       <c r="K190" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="191" spans="2:11" ht="6.75" customHeight="1">
@@ -7926,7 +7933,7 @@
     </row>
     <row r="192" spans="2:11">
       <c r="B192" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D192" s="12">
         <v>1010</v>
@@ -7935,22 +7942,22 @@
         <v>0</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H192" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="I192" s="19" t="s">
         <v>464</v>
-      </c>
-      <c r="I192" s="19" t="s">
-        <v>465</v>
       </c>
       <c r="J192" s="19"/>
       <c r="K192" s="20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="193" spans="2:11">
       <c r="B193" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D193" s="12">
         <v>1010</v>
@@ -7959,22 +7966,22 @@
         <v>1</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H193" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I193" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J193" s="9"/>
       <c r="K193" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="194" spans="2:11">
       <c r="B194" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D194" s="12">
         <v>1010</v>
@@ -7983,22 +7990,22 @@
         <v>10</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H194" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="I194" s="26" t="s">
         <v>467</v>
-      </c>
-      <c r="I194" s="26" t="s">
-        <v>468</v>
       </c>
       <c r="J194" s="9"/>
       <c r="K194" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="195" spans="2:11">
       <c r="B195" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D195" s="12">
         <v>1010</v>
@@ -8007,19 +8014,19 @@
         <v>11</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H195" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J195" s="9"/>
       <c r="K195" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="196" spans="2:11">
       <c r="B196" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D196" s="12">
         <v>1010</v>
@@ -8028,19 +8035,19 @@
         <v>100</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H196" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J196" s="9"/>
       <c r="K196" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="197" spans="2:11">
       <c r="B197" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D197" s="12">
         <v>1010</v>
@@ -8049,22 +8056,22 @@
         <v>101</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I197" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J197" s="9"/>
       <c r="K197" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="198" spans="2:11">
       <c r="B198" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D198" s="12">
         <v>1010</v>
@@ -8076,7 +8083,7 @@
     </row>
     <row r="199" spans="2:11">
       <c r="B199" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D199" s="12">
         <v>1010</v>
@@ -8091,7 +8098,7 @@
     </row>
     <row r="201" spans="2:11">
       <c r="B201" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D201" s="12">
         <v>1010</v>
@@ -8100,17 +8107,17 @@
         <v>1000</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H201" s="9"/>
       <c r="J201" s="9"/>
       <c r="K201" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="202" spans="2:11">
       <c r="B202" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D202" s="12">
         <v>1010</v>
@@ -8119,17 +8126,17 @@
         <v>1001</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H202" s="9"/>
       <c r="J202" s="9"/>
       <c r="K202" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="203" spans="2:11">
       <c r="B203" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D203" s="12">
         <v>1010</v>
@@ -8138,17 +8145,17 @@
         <v>1010</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H203" s="9"/>
       <c r="J203" s="9"/>
       <c r="K203" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="204" spans="2:11">
       <c r="B204" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D204" s="12">
         <v>1010</v>
@@ -8157,17 +8164,17 @@
         <v>1011</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H204" s="9"/>
       <c r="J204" s="9"/>
       <c r="K204" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="205" spans="2:11">
       <c r="B205" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D205" s="12">
         <v>1010</v>
@@ -8176,17 +8183,17 @@
         <v>1100</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H205" s="9"/>
       <c r="J205" s="9"/>
       <c r="K205" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="206" spans="2:11">
       <c r="B206" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D206" s="12">
         <v>1010</v>
@@ -8195,17 +8202,17 @@
         <v>1101</v>
       </c>
       <c r="G206" s="13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H206" s="9"/>
       <c r="J206" s="9"/>
       <c r="K206" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="207" spans="2:11">
       <c r="B207" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D207" s="12">
         <v>1010</v>
@@ -8214,17 +8221,17 @@
         <v>1110</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H207" s="9"/>
       <c r="J207" s="9"/>
       <c r="K207" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="208" spans="2:11">
       <c r="B208" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D208" s="12">
         <v>1010</v>
@@ -8233,12 +8240,12 @@
         <v>1111</v>
       </c>
       <c r="G208" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H208" s="9"/>
       <c r="J208" s="9"/>
       <c r="K208" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="209" spans="2:11" ht="6.75" customHeight="1">
@@ -8246,7 +8253,7 @@
     </row>
     <row r="210" spans="2:11">
       <c r="B210" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D210" s="12">
         <v>1011</v>
@@ -8255,22 +8262,22 @@
         <v>0</v>
       </c>
       <c r="G210" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H210" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="I210" s="19" t="s">
         <v>464</v>
-      </c>
-      <c r="I210" s="19" t="s">
-        <v>465</v>
       </c>
       <c r="J210" s="19"/>
       <c r="K210" s="20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="211" spans="2:11">
       <c r="B211" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D211" s="12">
         <v>1011</v>
@@ -8279,22 +8286,22 @@
         <v>1</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H211" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I211" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J211" s="9"/>
       <c r="K211" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="212" spans="2:11">
       <c r="B212" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D212" s="12">
         <v>1011</v>
@@ -8303,22 +8310,22 @@
         <v>10</v>
       </c>
       <c r="G212" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H212" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="I212" s="26" t="s">
         <v>467</v>
-      </c>
-      <c r="I212" s="26" t="s">
-        <v>468</v>
       </c>
       <c r="J212" s="9"/>
       <c r="K212" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="213" spans="2:11">
       <c r="B213" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D213" s="12">
         <v>1011</v>
@@ -8327,19 +8334,19 @@
         <v>11</v>
       </c>
       <c r="G213" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H213" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J213" s="9"/>
       <c r="K213" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="214" spans="2:11">
       <c r="B214" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D214" s="12">
         <v>1011</v>
@@ -8348,19 +8355,19 @@
         <v>100</v>
       </c>
       <c r="G214" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H214" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J214" s="9"/>
       <c r="K214" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="215" spans="2:11">
       <c r="B215" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D215" s="12">
         <v>1011</v>
@@ -8369,22 +8376,22 @@
         <v>101</v>
       </c>
       <c r="G215" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H215" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I215" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J215" s="9"/>
       <c r="K215" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="216" spans="2:11">
       <c r="B216" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D216" s="12">
         <v>1011</v>
@@ -8399,7 +8406,7 @@
     </row>
     <row r="217" spans="2:11">
       <c r="B217" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D217" s="12">
         <v>1011</v>
@@ -8420,7 +8427,7 @@
     </row>
     <row r="219" spans="2:11">
       <c r="B219" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D219" s="12">
         <v>1011</v>
@@ -8429,17 +8436,17 @@
         <v>1000</v>
       </c>
       <c r="G219" s="13" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H219" s="9"/>
       <c r="J219" s="9"/>
       <c r="K219" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="220" spans="2:11">
       <c r="B220" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D220" s="12">
         <v>1011</v>
@@ -8448,17 +8455,17 @@
         <v>1001</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H220" s="9"/>
       <c r="J220" s="9"/>
       <c r="K220" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="221" spans="2:11">
       <c r="B221" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D221" s="12">
         <v>1011</v>
@@ -8467,17 +8474,17 @@
         <v>1010</v>
       </c>
       <c r="G221" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H221" s="9"/>
       <c r="J221" s="9"/>
       <c r="K221" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="222" spans="2:11">
       <c r="B222" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D222" s="12">
         <v>1011</v>
@@ -8486,17 +8493,17 @@
         <v>1011</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H222" s="9"/>
       <c r="J222" s="9"/>
       <c r="K222" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="223" spans="2:11">
       <c r="B223" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D223" s="12">
         <v>1011</v>
@@ -8505,17 +8512,17 @@
         <v>1100</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H223" s="9"/>
       <c r="J223" s="9"/>
       <c r="K223" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="224" spans="2:11">
       <c r="B224" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D224" s="12">
         <v>1011</v>
@@ -8524,17 +8531,17 @@
         <v>1101</v>
       </c>
       <c r="G224" s="13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H224" s="9"/>
       <c r="J224" s="9"/>
       <c r="K224" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="225" spans="2:11">
       <c r="B225" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D225" s="12">
         <v>1011</v>
@@ -8543,17 +8550,17 @@
         <v>1110</v>
       </c>
       <c r="G225" s="13" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H225" s="9"/>
       <c r="J225" s="9"/>
       <c r="K225" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="226" spans="2:11">
       <c r="B226" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D226" s="12">
         <v>1011</v>
@@ -8562,12 +8569,12 @@
         <v>1111</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H226" s="9"/>
       <c r="J226" s="9"/>
       <c r="K226" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="227" spans="2:11" ht="6.75" customHeight="1">
@@ -8575,7 +8582,7 @@
     </row>
     <row r="228" spans="2:11">
       <c r="B228" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D228" s="12">
         <v>1100</v>
@@ -8584,22 +8591,22 @@
         <v>0</v>
       </c>
       <c r="G228" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H228" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I228" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J228" s="9"/>
       <c r="K228" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="229" spans="2:11">
       <c r="B229" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D229" s="12">
         <v>1100</v>
@@ -8608,22 +8615,22 @@
         <v>1</v>
       </c>
       <c r="G229" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H229" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I229" s="26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J229" s="9"/>
       <c r="K229" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="230" spans="2:11">
       <c r="B230" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D230" s="12">
         <v>1100</v>
@@ -8632,22 +8639,22 @@
         <v>10</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H230" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I230" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J230" s="9"/>
       <c r="K230" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="231" spans="2:11">
       <c r="B231" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D231" s="12">
         <v>1100</v>
@@ -8656,19 +8663,19 @@
         <v>11</v>
       </c>
       <c r="G231" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H231" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J231" s="9"/>
       <c r="K231" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="232" spans="2:11">
       <c r="B232" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D232" s="12">
         <v>1100</v>
@@ -8677,19 +8684,19 @@
         <v>100</v>
       </c>
       <c r="G232" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H232" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J232" s="9"/>
       <c r="K232" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="233" spans="2:11">
       <c r="B233" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D233" s="12">
         <v>1100</v>
@@ -8698,22 +8705,22 @@
         <v>101</v>
       </c>
       <c r="G233" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H233" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I233" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J233" s="9"/>
       <c r="K233" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="234" spans="2:11">
       <c r="B234" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D234" s="12">
         <v>1100</v>
@@ -8728,7 +8735,7 @@
     </row>
     <row r="235" spans="2:11">
       <c r="B235" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D235" s="12">
         <v>1100</v>
@@ -8749,7 +8756,7 @@
     </row>
     <row r="237" spans="2:11">
       <c r="B237" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D237" s="12">
         <v>1100</v>
@@ -8758,17 +8765,17 @@
         <v>1000</v>
       </c>
       <c r="G237" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H237" s="9"/>
       <c r="J237" s="9"/>
       <c r="K237" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="238" spans="2:11">
       <c r="B238" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D238" s="12">
         <v>1100</v>
@@ -8777,17 +8784,17 @@
         <v>1001</v>
       </c>
       <c r="G238" s="13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H238" s="9"/>
       <c r="J238" s="9"/>
       <c r="K238" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="239" spans="2:11">
       <c r="B239" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D239" s="12">
         <v>1100</v>
@@ -8796,17 +8803,17 @@
         <v>1010</v>
       </c>
       <c r="G239" s="13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H239" s="9"/>
       <c r="J239" s="9"/>
       <c r="K239" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="240" spans="2:11">
       <c r="B240" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D240" s="12">
         <v>1100</v>
@@ -8815,17 +8822,17 @@
         <v>1011</v>
       </c>
       <c r="G240" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H240" s="9"/>
       <c r="J240" s="9"/>
       <c r="K240" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="241" spans="2:11">
       <c r="B241" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D241" s="12">
         <v>1100</v>
@@ -8834,17 +8841,17 @@
         <v>1100</v>
       </c>
       <c r="G241" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H241" s="9"/>
       <c r="J241" s="9"/>
       <c r="K241" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="242" spans="2:11">
       <c r="B242" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D242" s="12">
         <v>1100</v>
@@ -8853,17 +8860,17 @@
         <v>1101</v>
       </c>
       <c r="G242" s="13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H242" s="9"/>
       <c r="J242" s="9"/>
       <c r="K242" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="243" spans="2:11">
       <c r="B243" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D243" s="12">
         <v>1100</v>
@@ -8872,17 +8879,17 @@
         <v>1110</v>
       </c>
       <c r="G243" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H243" s="9"/>
       <c r="J243" s="9"/>
       <c r="K243" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="244" spans="2:11">
       <c r="B244" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D244" s="12">
         <v>1100</v>
@@ -8891,12 +8898,12 @@
         <v>1111</v>
       </c>
       <c r="G244" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H244" s="9"/>
       <c r="J244" s="9"/>
       <c r="K244" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="245" spans="2:11" ht="6.75" customHeight="1">
@@ -8907,7 +8914,7 @@
     </row>
     <row r="246" spans="2:11">
       <c r="B246" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D246" s="12">
         <v>1101</v>
@@ -8916,22 +8923,22 @@
         <v>0</v>
       </c>
       <c r="G246" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H246" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="I246" s="19" t="s">
         <v>464</v>
-      </c>
-      <c r="I246" s="19" t="s">
-        <v>465</v>
       </c>
       <c r="J246" s="9"/>
       <c r="K246" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="247" spans="2:11">
       <c r="B247" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D247" s="12">
         <v>1101</v>
@@ -8940,22 +8947,22 @@
         <v>1</v>
       </c>
       <c r="G247" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H247" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I247" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J247" s="9"/>
       <c r="K247" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="248" spans="2:11">
       <c r="B248" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D248" s="12">
         <v>1101</v>
@@ -8964,22 +8971,22 @@
         <v>10</v>
       </c>
       <c r="G248" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H248" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="I248" s="26" t="s">
         <v>467</v>
-      </c>
-      <c r="I248" s="26" t="s">
-        <v>468</v>
       </c>
       <c r="J248" s="9"/>
       <c r="K248" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="249" spans="2:11">
       <c r="B249" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D249" s="12">
         <v>1101</v>
@@ -8988,19 +8995,19 @@
         <v>11</v>
       </c>
       <c r="G249" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H249" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J249" s="9"/>
       <c r="K249" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="250" spans="2:11">
       <c r="B250" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D250" s="12">
         <v>1101</v>
@@ -9009,19 +9016,19 @@
         <v>100</v>
       </c>
       <c r="G250" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H250" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J250" s="9"/>
       <c r="K250" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="251" spans="2:11">
       <c r="B251" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D251" s="12">
         <v>1101</v>
@@ -9030,22 +9037,22 @@
         <v>101</v>
       </c>
       <c r="G251" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H251" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I251" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J251" s="9"/>
       <c r="K251" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="252" spans="2:11">
       <c r="B252" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D252" s="12">
         <v>1101</v>
@@ -9060,7 +9067,7 @@
     </row>
     <row r="253" spans="2:11">
       <c r="B253" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D253" s="12">
         <v>1101</v>
@@ -9081,7 +9088,7 @@
     </row>
     <row r="255" spans="2:11">
       <c r="B255" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D255" s="12">
         <v>1101</v>
@@ -9090,17 +9097,17 @@
         <v>1000</v>
       </c>
       <c r="G255" s="13" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H255" s="9"/>
       <c r="J255" s="9"/>
       <c r="K255" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="256" spans="2:11">
       <c r="B256" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D256" s="12">
         <v>1101</v>
@@ -9109,17 +9116,17 @@
         <v>1001</v>
       </c>
       <c r="G256" s="13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H256" s="9"/>
       <c r="J256" s="9"/>
       <c r="K256" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="257" spans="2:11">
       <c r="B257" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D257" s="12">
         <v>1101</v>
@@ -9128,17 +9135,17 @@
         <v>1010</v>
       </c>
       <c r="G257" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H257" s="9"/>
       <c r="J257" s="9"/>
       <c r="K257" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="258" spans="2:11">
       <c r="B258" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D258" s="12">
         <v>1101</v>
@@ -9147,17 +9154,17 @@
         <v>1011</v>
       </c>
       <c r="G258" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H258" s="9"/>
       <c r="J258" s="9"/>
       <c r="K258" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="259" spans="2:11">
       <c r="B259" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D259" s="12">
         <v>1101</v>
@@ -9166,17 +9173,17 @@
         <v>1100</v>
       </c>
       <c r="G259" s="13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H259" s="9"/>
       <c r="J259" s="9"/>
       <c r="K259" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="260" spans="2:11">
       <c r="B260" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D260" s="12">
         <v>1101</v>
@@ -9185,17 +9192,17 @@
         <v>1101</v>
       </c>
       <c r="G260" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H260" s="9"/>
       <c r="J260" s="9"/>
       <c r="K260" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="261" spans="2:11">
       <c r="B261" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D261" s="12">
         <v>1101</v>
@@ -9204,17 +9211,17 @@
         <v>1110</v>
       </c>
       <c r="G261" s="13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H261" s="9"/>
       <c r="J261" s="9"/>
       <c r="K261" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="262" spans="2:11">
       <c r="B262" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D262" s="12">
         <v>1101</v>
@@ -9223,12 +9230,12 @@
         <v>1111</v>
       </c>
       <c r="G262" s="13" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H262" s="9"/>
       <c r="J262" s="9"/>
       <c r="K262" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="263" spans="2:11" ht="7.5" customHeight="1">
@@ -9239,7 +9246,7 @@
     </row>
     <row r="264" spans="2:11">
       <c r="B264" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D264" s="12">
         <v>1110</v>
@@ -9248,22 +9255,22 @@
         <v>0</v>
       </c>
       <c r="G264" s="13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H264" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="I264" s="19" t="s">
         <v>464</v>
-      </c>
-      <c r="I264" s="19" t="s">
-        <v>465</v>
       </c>
       <c r="J264" s="19"/>
       <c r="K264" s="20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="265" spans="2:11">
       <c r="B265" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D265" s="12">
         <v>1110</v>
@@ -9272,22 +9279,22 @@
         <v>1</v>
       </c>
       <c r="G265" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H265" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I265" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J265" s="9"/>
       <c r="K265" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="266" spans="2:11">
       <c r="B266" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D266" s="12">
         <v>1110</v>
@@ -9296,22 +9303,22 @@
         <v>10</v>
       </c>
       <c r="G266" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H266" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="I266" s="26" t="s">
         <v>467</v>
-      </c>
-      <c r="I266" s="26" t="s">
-        <v>468</v>
       </c>
       <c r="J266" s="9"/>
       <c r="K266" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="267" spans="2:11">
       <c r="B267" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D267" s="12">
         <v>1110</v>
@@ -9320,19 +9327,19 @@
         <v>11</v>
       </c>
       <c r="G267" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H267" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J267" s="9"/>
       <c r="K267" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="268" spans="2:11">
       <c r="B268" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D268" s="12">
         <v>1110</v>
@@ -9341,19 +9348,19 @@
         <v>100</v>
       </c>
       <c r="G268" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H268" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J268" s="9"/>
       <c r="K268" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="269" spans="2:11">
       <c r="B269" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D269" s="12">
         <v>1110</v>
@@ -9362,22 +9369,22 @@
         <v>101</v>
       </c>
       <c r="G269" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H269" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I269" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J269" s="9"/>
       <c r="K269" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="270" spans="2:11">
       <c r="B270" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D270" s="12">
         <v>1110</v>
@@ -9392,7 +9399,7 @@
     </row>
     <row r="271" spans="2:11">
       <c r="B271" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D271" s="12">
         <v>1110</v>
@@ -9413,7 +9420,7 @@
     </row>
     <row r="273" spans="2:11">
       <c r="B273" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D273" s="12">
         <v>1110</v>
@@ -9422,17 +9429,17 @@
         <v>1000</v>
       </c>
       <c r="G273" s="13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H273" s="9"/>
       <c r="J273" s="9"/>
       <c r="K273" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="274" spans="2:11">
       <c r="B274" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D274" s="12">
         <v>1110</v>
@@ -9441,17 +9448,17 @@
         <v>1001</v>
       </c>
       <c r="G274" s="13" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H274" s="9"/>
       <c r="J274" s="9"/>
       <c r="K274" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="275" spans="2:11">
       <c r="B275" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D275" s="12">
         <v>1110</v>
@@ -9460,17 +9467,17 @@
         <v>1010</v>
       </c>
       <c r="G275" s="13" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H275" s="9"/>
       <c r="J275" s="9"/>
       <c r="K275" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="276" spans="2:11">
       <c r="B276" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D276" s="12">
         <v>1110</v>
@@ -9479,17 +9486,17 @@
         <v>1011</v>
       </c>
       <c r="G276" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H276" s="9"/>
       <c r="J276" s="9"/>
       <c r="K276" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="277" spans="2:11">
       <c r="B277" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D277" s="12">
         <v>1110</v>
@@ -9498,17 +9505,17 @@
         <v>1100</v>
       </c>
       <c r="G277" s="13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H277" s="9"/>
       <c r="J277" s="9"/>
       <c r="K277" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="278" spans="2:11">
       <c r="B278" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D278" s="12">
         <v>1110</v>
@@ -9517,17 +9524,17 @@
         <v>1101</v>
       </c>
       <c r="G278" s="13" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H278" s="9"/>
       <c r="J278" s="9"/>
       <c r="K278" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="279" spans="2:11">
       <c r="B279" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D279" s="12">
         <v>1110</v>
@@ -9536,17 +9543,17 @@
         <v>1110</v>
       </c>
       <c r="G279" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H279" s="9"/>
       <c r="J279" s="9"/>
       <c r="K279" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="280" spans="2:11">
       <c r="B280" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D280" s="12">
         <v>1110</v>
@@ -9555,12 +9562,12 @@
         <v>1111</v>
       </c>
       <c r="G280" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H280" s="9"/>
       <c r="J280" s="9"/>
       <c r="K280" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="281" spans="2:11" ht="7.5" customHeight="1">
@@ -9571,7 +9578,7 @@
     </row>
     <row r="282" spans="2:11">
       <c r="B282" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D282" s="12">
         <v>1111</v>
@@ -9580,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="G282" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H282" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="I282" s="19" t="s">
         <v>464</v>
-      </c>
-      <c r="I282" s="19" t="s">
-        <v>465</v>
       </c>
       <c r="J282" s="19"/>
       <c r="K282" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="283" spans="2:11">
       <c r="B283" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D283" s="12">
         <v>1111</v>
@@ -9604,22 +9611,22 @@
         <v>1</v>
       </c>
       <c r="G283" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H283" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I283" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J283" s="9"/>
       <c r="K283" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="284" spans="2:11">
       <c r="B284" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D284" s="12">
         <v>1111</v>
@@ -9628,22 +9635,22 @@
         <v>10</v>
       </c>
       <c r="G284" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H284" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="I284" s="26" t="s">
         <v>467</v>
-      </c>
-      <c r="I284" s="26" t="s">
-        <v>468</v>
       </c>
       <c r="J284" s="9"/>
       <c r="K284" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="285" spans="2:11">
       <c r="B285" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D285" s="12">
         <v>1111</v>
@@ -9652,19 +9659,19 @@
         <v>11</v>
       </c>
       <c r="G285" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H285" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J285" s="9"/>
       <c r="K285" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="286" spans="2:11">
       <c r="B286" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D286" s="12">
         <v>1111</v>
@@ -9673,19 +9680,19 @@
         <v>100</v>
       </c>
       <c r="G286" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H286" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J286" s="9"/>
       <c r="K286" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="287" spans="2:11">
       <c r="B287" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D287" s="12">
         <v>1111</v>
@@ -9694,22 +9701,22 @@
         <v>101</v>
       </c>
       <c r="G287" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H287" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I287" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J287" s="9"/>
       <c r="K287" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="288" spans="2:11">
       <c r="B288" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D288" s="12">
         <v>1111</v>
@@ -9724,7 +9731,7 @@
     </row>
     <row r="289" spans="2:11">
       <c r="B289" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D289" s="12">
         <v>1111</v>
@@ -9745,7 +9752,7 @@
     </row>
     <row r="291" spans="2:11">
       <c r="B291" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D291" s="12">
         <v>1111</v>
@@ -9754,17 +9761,17 @@
         <v>1000</v>
       </c>
       <c r="G291" s="13" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H291" s="9"/>
       <c r="J291" s="9"/>
       <c r="K291" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="292" spans="2:11">
       <c r="B292" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D292" s="12">
         <v>1111</v>
@@ -9773,17 +9780,17 @@
         <v>1001</v>
       </c>
       <c r="G292" s="13" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H292" s="9"/>
       <c r="J292" s="9"/>
       <c r="K292" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="293" spans="2:11">
       <c r="B293" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D293" s="12">
         <v>1111</v>
@@ -9792,17 +9799,17 @@
         <v>1010</v>
       </c>
       <c r="G293" s="13" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H293" s="9"/>
       <c r="J293" s="9"/>
       <c r="K293" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="294" spans="2:11">
       <c r="B294" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D294" s="12">
         <v>1111</v>
@@ -9811,17 +9818,17 @@
         <v>1011</v>
       </c>
       <c r="G294" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H294" s="9"/>
       <c r="J294" s="9"/>
       <c r="K294" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="295" spans="2:11">
       <c r="B295" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D295" s="12">
         <v>1111</v>
@@ -9830,17 +9837,17 @@
         <v>1100</v>
       </c>
       <c r="G295" s="13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H295" s="9"/>
       <c r="J295" s="9"/>
       <c r="K295" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="296" spans="2:11">
       <c r="B296" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D296" s="12">
         <v>1111</v>
@@ -9849,17 +9856,17 @@
         <v>1101</v>
       </c>
       <c r="G296" s="13" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H296" s="9"/>
       <c r="J296" s="9"/>
       <c r="K296" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="297" spans="2:11">
       <c r="B297" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D297" s="12">
         <v>1111</v>
@@ -9868,17 +9875,17 @@
         <v>1110</v>
       </c>
       <c r="G297" s="13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H297" s="9"/>
       <c r="J297" s="9"/>
       <c r="K297" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="298" spans="2:11">
       <c r="B298" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D298" s="12">
         <v>1111</v>
@@ -9887,12 +9894,12 @@
         <v>1111</v>
       </c>
       <c r="G298" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H298" s="9"/>
       <c r="J298" s="9"/>
       <c r="K298" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="299" spans="2:11" ht="6.75" customHeight="1"/>

--- a/Computer/OpCodes_v3.xlsx
+++ b/Computer/OpCodes_v3.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F68E4B-F1BF-48E1-8E48-9D6631320A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C85CA5-4F44-495B-A92E-02B597B70B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3B601499-BEB0-4D14-81EA-17F4CFBCBA4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3B601499-BEB0-4D14-81EA-17F4CFBCBA4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Registers" sheetId="5" r:id="rId1"/>
     <sheet name="OpCode Organization" sheetId="6" r:id="rId2"/>
     <sheet name="Full List" sheetId="7" r:id="rId3"/>
+    <sheet name="Special Instructions" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="744">
   <si>
     <t>PC</t>
     <phoneticPr fontId="1"/>
@@ -862,15 +863,7 @@
     <t>2e</t>
   </si>
   <si>
-    <t>Memory mapping?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2f</t>
-  </si>
-  <si>
-    <t>DMA</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>3a</t>
@@ -2796,6 +2789,74 @@
   </si>
   <si>
     <t>Return from Syscall (pops a byte, then the new value of rt, then a byte, then the new ipl)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>See Special Instructions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Special 2-byte instruction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Selector </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Instruction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specialized OpCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WPF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RPF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WPF1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RPF1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WPF32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RPF32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SYSCALL?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Probably illegal?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2903,7 +2964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2998,12 +3059,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3020,6 +3087,12 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3351,22 +3424,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
@@ -3498,7 +3571,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>60</v>
@@ -3521,7 +3594,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -3535,7 +3608,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -3545,24 +3618,24 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="B13" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="27"/>
@@ -3571,15 +3644,15 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="1" t="s">
@@ -3665,15 +3738,15 @@
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3711,20 +3784,20 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="32"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
@@ -3761,18 +3834,18 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
       <c r="M7" t="s">
         <v>104</v>
       </c>
@@ -3797,18 +3870,18 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
       <c r="M10" t="s">
         <v>109</v>
       </c>
@@ -3820,10 +3893,10 @@
       <c r="C11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="31"/>
       <c r="K11" t="s">
         <v>78</v>
       </c>
@@ -3837,18 +3910,18 @@
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
       <c r="M13" t="s">
         <v>112</v>
       </c>
@@ -3926,18 +3999,18 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
       <c r="M20" t="s">
         <v>118</v>
       </c>
@@ -4005,18 +4078,18 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="2" t="s">
@@ -4025,12 +4098,12 @@
       <c r="C27" s="2">
         <v>0</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="31"/>
       <c r="K27" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="2:13">
@@ -4040,15 +4113,15 @@
       <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
       <c r="K28" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -4058,15 +4131,15 @@
       <c r="C29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
       <c r="K29" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -4076,15 +4149,15 @@
       <c r="C30" s="2">
         <v>2</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
       <c r="K30" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="2:13">
@@ -4094,10 +4167,10 @@
       <c r="C31" s="2">
         <v>3</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="31"/>
       <c r="K31" t="s">
         <v>95</v>
       </c>
@@ -4109,10 +4182,10 @@
       <c r="C32" s="2">
         <v>4</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="31"/>
       <c r="K32" t="s">
         <v>94</v>
       </c>
@@ -4130,10 +4203,10 @@
       <c r="F33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="29" t="s">
+      <c r="H33" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="29"/>
+      <c r="I33" s="31"/>
       <c r="K33" t="s">
         <v>93</v>
       </c>
@@ -4150,18 +4223,18 @@
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="3" t="s">
@@ -4177,10 +4250,10 @@
       <c r="F37" s="2">
         <v>0</v>
       </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
       <c r="K37" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -4190,10 +4263,10 @@
       <c r="F38" s="2">
         <v>1</v>
       </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
       <c r="K38" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -4203,10 +4276,10 @@
       <c r="F39" s="2">
         <v>2</v>
       </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
       <c r="K39" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -4214,8 +4287,8 @@
       <c r="F40" s="2">
         <v>3</v>
       </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
     </row>
     <row r="41" spans="2:11">
       <c r="E41" s="28" t="s">
@@ -4224,10 +4297,10 @@
       <c r="F41" s="2">
         <v>4</v>
       </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
       <c r="K41" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="42" spans="2:11">
@@ -4237,10 +4310,10 @@
       <c r="F42" s="2">
         <v>5</v>
       </c>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
       <c r="K42" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -4250,10 +4323,10 @@
       <c r="F43" s="2">
         <v>6</v>
       </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
       <c r="K43" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -4261,8 +4334,8 @@
       <c r="F44" s="2">
         <v>7</v>
       </c>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
     </row>
     <row r="45" spans="2:11">
       <c r="E45" s="28" t="s">
@@ -4271,12 +4344,12 @@
       <c r="F45" s="2">
         <v>8</v>
       </c>
-      <c r="H45" s="29" t="s">
+      <c r="H45" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I45" s="29"/>
+      <c r="I45" s="31"/>
       <c r="K45" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -4286,12 +4359,12 @@
       <c r="F46" s="2">
         <v>9</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I46" s="29"/>
+      <c r="I46" s="31"/>
       <c r="K46" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="47" spans="2:11">
@@ -4301,12 +4374,12 @@
       <c r="F47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I47" s="29"/>
+      <c r="I47" s="31"/>
       <c r="K47" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="48" spans="2:11">
@@ -4314,8 +4387,8 @@
       <c r="F48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
     </row>
     <row r="49" spans="2:11">
       <c r="E49" s="28" t="s">
@@ -4324,12 +4397,12 @@
       <c r="F49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="H49" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="29"/>
+      <c r="I49" s="31"/>
       <c r="K49" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="50" spans="2:11">
@@ -4339,12 +4412,12 @@
       <c r="F50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H50" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I50" s="29"/>
+      <c r="I50" s="31"/>
       <c r="K50" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="51" spans="2:11">
@@ -4361,23 +4434,40 @@
       <c r="F51" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H51" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="29"/>
+      <c r="I51" s="31"/>
       <c r="K51" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="F52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="B10:K10"/>
@@ -4394,23 +4484,6 @@
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:I28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4425,8 +4498,8 @@
   </sheetPr>
   <dimension ref="B2:V299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="R68" sqref="R68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4448,20 +4521,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="B2" s="36" t="s">
-        <v>606</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="33" t="s">
-        <v>494</v>
-      </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="B2" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="10"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -4479,18 +4552,18 @@
         <v>47</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>614</v>
-      </c>
-      <c r="H3" s="35"/>
+        <v>598</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>612</v>
+      </c>
+      <c r="H3" s="37"/>
       <c r="I3" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -4510,16 +4583,16 @@
         <v>50</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
+        <v>599</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="26" t="s">
         <v>96</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
@@ -4536,17 +4609,17 @@
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="26" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
@@ -4566,16 +4639,16 @@
         <v>54</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+        <v>601</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="26" t="s">
         <v>170</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
@@ -4595,16 +4668,16 @@
         <v>57</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+        <v>602</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="26" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -4615,7 +4688,7 @@
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>6</v>
@@ -4624,16 +4697,16 @@
         <v>60</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+        <v>603</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="26" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -4644,15 +4717,15 @@
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -4663,15 +4736,15 @@
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -4694,18 +4767,18 @@
       <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="32" t="s">
-        <v>607</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
+      <c r="B12" s="35" t="s">
+        <v>605</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
       <c r="L12" s="10"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -4717,19 +4790,19 @@
         <v>123</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="38"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="24"/>
       <c r="G13" s="25" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="25" t="s">
@@ -5117,10 +5190,10 @@
         <v>1111</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
@@ -5441,7 +5514,7 @@
         <v>1110</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>170</v>
@@ -5462,7 +5535,7 @@
         <v>1111</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>170</v>
@@ -5487,13 +5560,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="49" spans="2:11">
@@ -5507,13 +5580,13 @@
         <v>1</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H49" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="K49" s="8" t="s">
         <v>632</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="50" spans="2:11">
@@ -5530,10 +5603,10 @@
         <v>198</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="51" spans="2:11">
@@ -5547,13 +5620,13 @@
         <v>11</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="52" spans="2:11">
@@ -5567,13 +5640,13 @@
         <v>100</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="53" spans="2:11">
@@ -5587,13 +5660,13 @@
         <v>101</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -5607,13 +5680,13 @@
         <v>110</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="55" spans="2:11">
@@ -5627,13 +5700,13 @@
         <v>111</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="6.75" customHeight="1">
@@ -5650,7 +5723,7 @@
         <v>1000</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>199</v>
@@ -5667,7 +5740,7 @@
         <v>1001</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>200</v>
@@ -5684,7 +5757,7 @@
         <v>1010</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>202</v>
@@ -5701,7 +5774,7 @@
         <v>1011</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>204</v>
@@ -5718,7 +5791,7 @@
         <v>1100</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>208</v>
@@ -5735,7 +5808,7 @@
         <v>1101</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>206</v>
@@ -5751,16 +5824,18 @@
       <c r="E63" s="12">
         <v>1110</v>
       </c>
-      <c r="G63" s="15" t="s">
-        <v>416</v>
-      </c>
+      <c r="G63" s="41" t="s">
+        <v>727</v>
+      </c>
+      <c r="H63" s="41"/>
+      <c r="I63" s="42"/>
       <c r="K63" s="8" t="s">
-        <v>210</v>
+        <v>728</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D64" s="12">
         <v>10</v>
@@ -5768,11 +5843,13 @@
       <c r="E64" s="12">
         <v>1111</v>
       </c>
-      <c r="G64" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>212</v>
+      <c r="G64" s="41" t="s">
+        <v>727</v>
+      </c>
+      <c r="H64" s="41"/>
+      <c r="I64" s="42"/>
+      <c r="K64" s="30" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="65" spans="2:11" ht="6.75" customHeight="1">
@@ -5789,13 +5866,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -5809,13 +5886,13 @@
         <v>1</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H67" s="28" t="s">
+        <v>639</v>
+      </c>
+      <c r="K67" s="8" t="s">
         <v>641</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -5832,10 +5909,10 @@
         <v>198</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -5849,13 +5926,13 @@
         <v>11</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -5869,13 +5946,13 @@
         <v>100</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -5889,13 +5966,13 @@
         <v>101</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="72" spans="2:11">
@@ -5909,13 +5986,13 @@
         <v>110</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -5929,13 +6006,13 @@
         <v>111</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="74" spans="2:11" ht="6.75" customHeight="1">
@@ -5952,10 +6029,10 @@
         <v>1000</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="2:11">
@@ -5969,15 +6046,15 @@
         <v>1001</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D77" s="12">
         <v>11</v>
@@ -5986,15 +6063,15 @@
         <v>1010</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D78" s="12">
         <v>11</v>
@@ -6003,15 +6080,15 @@
         <v>1011</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D79" s="12">
         <v>11</v>
@@ -6020,15 +6097,15 @@
         <v>1100</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D80" s="12">
         <v>11</v>
@@ -6037,15 +6114,15 @@
         <v>1101</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D81" s="12">
         <v>11</v>
@@ -6054,15 +6131,15 @@
         <v>1110</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D82" s="12">
         <v>11</v>
@@ -6071,10 +6148,10 @@
         <v>1111</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="7.5" customHeight="1">
@@ -6091,13 +6168,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="2:11">
@@ -6111,13 +6188,13 @@
         <v>1</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="2:11">
@@ -6131,13 +6208,13 @@
         <v>10</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="2:11">
@@ -6151,13 +6228,13 @@
         <v>11</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="2:11">
@@ -6171,13 +6248,13 @@
         <v>100</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="2:11">
@@ -6191,13 +6268,13 @@
         <v>101</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="2:11">
@@ -6211,7 +6288,7 @@
         <v>110</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="91" spans="2:11">
@@ -6225,10 +6302,10 @@
         <v>111</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="2:11" ht="7.5" customHeight="1">
@@ -6245,10 +6322,10 @@
         <v>1000</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="2:11">
@@ -6262,15 +6339,15 @@
         <v>1001</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D95" s="12">
         <v>100</v>
@@ -6279,15 +6356,15 @@
         <v>1010</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="2:11">
       <c r="B96" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D96" s="12">
         <v>100</v>
@@ -6296,15 +6373,15 @@
         <v>1011</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D97" s="12">
         <v>100</v>
@@ -6313,15 +6390,15 @@
         <v>1100</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D98" s="12">
         <v>100</v>
@@ -6330,15 +6407,15 @@
         <v>1101</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D99" s="12">
         <v>100</v>
@@ -6347,15 +6424,15 @@
         <v>1110</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D100" s="12">
         <v>100</v>
@@ -6364,10 +6441,10 @@
         <v>1111</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="101" spans="2:11" ht="6.75" customHeight="1">
@@ -6384,13 +6461,13 @@
         <v>0</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="2:11">
@@ -6404,13 +6481,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="2:11">
@@ -6424,13 +6501,13 @@
         <v>10</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="2:11">
@@ -6444,13 +6521,13 @@
         <v>11</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="2:11">
@@ -6464,13 +6541,13 @@
         <v>100</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" spans="2:11">
@@ -6484,13 +6561,13 @@
         <v>101</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="2:11">
@@ -6504,7 +6581,7 @@
         <v>110</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="109" spans="2:11">
@@ -6518,7 +6595,7 @@
         <v>111</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="110" spans="2:11" ht="7.5" customHeight="1">
@@ -6535,10 +6612,10 @@
         <v>1000</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="2:11">
@@ -6552,15 +6629,15 @@
         <v>1001</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="2:11">
       <c r="B113" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D113" s="12">
         <v>101</v>
@@ -6569,15 +6646,15 @@
         <v>1010</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="2:11">
       <c r="B114" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D114" s="12">
         <v>101</v>
@@ -6586,15 +6663,15 @@
         <v>1011</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="115" spans="2:11">
       <c r="B115" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D115" s="12">
         <v>101</v>
@@ -6603,15 +6680,15 @@
         <v>1100</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="116" spans="2:11">
       <c r="B116" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D116" s="12">
         <v>101</v>
@@ -6620,15 +6697,15 @@
         <v>1101</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K116" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" spans="2:11">
       <c r="B117" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D117" s="12">
         <v>101</v>
@@ -6637,15 +6714,15 @@
         <v>1110</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="118" spans="2:11">
       <c r="B118" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D118" s="12">
         <v>101</v>
@@ -6654,10 +6731,10 @@
         <v>1111</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="119" spans="2:11" ht="7.5" customHeight="1">
@@ -6674,16 +6751,16 @@
         <v>0</v>
       </c>
       <c r="G120" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="I120" s="26" t="s">
         <v>462</v>
       </c>
-      <c r="H120" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="I120" s="26" t="s">
-        <v>464</v>
-      </c>
       <c r="K120" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="121" spans="2:11">
@@ -6697,16 +6774,16 @@
         <v>1</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>96</v>
       </c>
       <c r="I121" s="26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="122" spans="2:11">
@@ -6720,16 +6797,16 @@
         <v>10</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I122" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="123" spans="2:11">
@@ -6743,13 +6820,13 @@
         <v>11</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>170</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="124" spans="2:11">
@@ -6763,13 +6840,13 @@
         <v>100</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="125" spans="2:11">
@@ -6783,16 +6860,16 @@
         <v>101</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I125" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="126" spans="2:11">
@@ -6806,7 +6883,7 @@
         <v>110</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="2:11">
@@ -6820,7 +6897,7 @@
         <v>111</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128" spans="2:11" ht="6.75" customHeight="1">
@@ -6839,17 +6916,17 @@
       </c>
       <c r="F129" s="17"/>
       <c r="G129" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H129" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J129" s="19"/>
       <c r="K129" s="20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="130" spans="2:11">
@@ -6863,21 +6940,21 @@
         <v>1001</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I130" s="26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="131" spans="2:11">
       <c r="B131" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D131" s="12">
         <v>110</v>
@@ -6886,21 +6963,21 @@
         <v>1010</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I131" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="132" spans="2:11">
       <c r="B132" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D132" s="12">
         <v>110</v>
@@ -6909,18 +6986,18 @@
         <v>1011</v>
       </c>
       <c r="G132" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>170</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="133" spans="2:11">
       <c r="B133" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D133" s="12">
         <v>110</v>
@@ -6929,18 +7006,18 @@
         <v>1100</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="134" spans="2:11">
       <c r="B134" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D134" s="12">
         <v>110</v>
@@ -6949,21 +7026,21 @@
         <v>1101</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I134" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="135" spans="2:11">
       <c r="B135" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D135" s="12">
         <v>110</v>
@@ -6972,12 +7049,12 @@
         <v>1110</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D136" s="12">
         <v>110</v>
@@ -6986,7 +7063,7 @@
         <v>1111</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" spans="2:11" ht="6.75" customHeight="1">
@@ -7003,16 +7080,16 @@
         <v>0</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H138" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="139" spans="2:11">
@@ -7026,16 +7103,16 @@
         <v>1</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H139" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I139" s="26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="2:11">
@@ -7049,16 +7126,16 @@
         <v>10</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I140" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141" spans="2:11">
@@ -7072,13 +7149,13 @@
         <v>11</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H141" s="9" t="s">
         <v>170</v>
       </c>
       <c r="K141" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="2:11">
@@ -7092,13 +7169,13 @@
         <v>100</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="2:11">
@@ -7112,16 +7189,16 @@
         <v>101</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I143" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="2:11">
@@ -7135,10 +7212,10 @@
         <v>110</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K144" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="2:11">
@@ -7167,16 +7244,16 @@
         <v>1000</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H147" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I147" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="148" spans="2:11">
@@ -7190,21 +7267,21 @@
         <v>1001</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H148" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I148" s="26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="149" spans="2:11">
       <c r="B149" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D149" s="12">
         <v>111</v>
@@ -7213,21 +7290,21 @@
         <v>1010</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I149" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="150" spans="2:11">
       <c r="B150" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D150" s="12">
         <v>111</v>
@@ -7236,18 +7313,18 @@
         <v>1011</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>170</v>
       </c>
       <c r="K150" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="151" spans="2:11">
       <c r="B151" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D151" s="12">
         <v>111</v>
@@ -7256,18 +7333,18 @@
         <v>1100</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K151" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="152" spans="2:11">
       <c r="B152" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D152" s="12">
         <v>111</v>
@@ -7276,21 +7353,21 @@
         <v>1101</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I152" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K152" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="153" spans="2:11">
       <c r="B153" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D153" s="12">
         <v>111</v>
@@ -7300,12 +7377,12 @@
       </c>
       <c r="G153" s="15"/>
       <c r="K153" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="154" spans="2:11">
       <c r="B154" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D154" s="12">
         <v>111</v>
@@ -7315,7 +7392,7 @@
       </c>
       <c r="G154" s="15"/>
       <c r="K154" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155" spans="2:11" ht="7.5" customHeight="1">
@@ -7332,16 +7409,16 @@
         <v>0</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H156" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I156" s="19" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K156" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="157" spans="2:11">
@@ -7355,16 +7432,16 @@
         <v>1</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H157" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I157" s="26" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="158" spans="2:11">
@@ -7378,16 +7455,16 @@
         <v>10</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I158" s="26" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="159" spans="2:11">
@@ -7401,13 +7478,13 @@
         <v>11</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H159" s="9" t="s">
         <v>170</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="160" spans="2:11">
@@ -7421,13 +7498,13 @@
         <v>100</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K160" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="161" spans="2:11">
@@ -7441,16 +7518,16 @@
         <v>101</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I161" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K161" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="162" spans="2:11">
@@ -7491,10 +7568,10 @@
         <v>1000</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="166" spans="2:11">
@@ -7508,15 +7585,15 @@
         <v>1001</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K166" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="167" spans="2:11">
       <c r="B167" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D167" s="12">
         <v>1000</v>
@@ -7525,15 +7602,15 @@
         <v>1010</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K167" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="2:11">
       <c r="B168" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D168" s="12">
         <v>1000</v>
@@ -7542,15 +7619,15 @@
         <v>1011</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="169" spans="2:11">
       <c r="B169" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D169" s="12">
         <v>1000</v>
@@ -7559,15 +7636,15 @@
         <v>1100</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K169" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="170" spans="2:11">
       <c r="B170" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D170" s="12">
         <v>1000</v>
@@ -7576,15 +7653,15 @@
         <v>1101</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="K170" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="171" spans="2:11">
       <c r="B171" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D171" s="12">
         <v>1000</v>
@@ -7593,15 +7670,15 @@
         <v>1110</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K171" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="172" spans="2:11">
       <c r="B172" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D172" s="12">
         <v>1000</v>
@@ -7610,10 +7687,10 @@
         <v>1111</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K172" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="173" spans="2:11" ht="6.75" customHeight="1">
@@ -7630,17 +7707,17 @@
         <v>0</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I174" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J174" s="9"/>
       <c r="K174" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="175" spans="2:11">
@@ -7654,17 +7731,17 @@
         <v>1</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H175" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I175" s="26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J175" s="9"/>
       <c r="K175" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="176" spans="2:11">
@@ -7678,17 +7755,17 @@
         <v>10</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I176" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J176" s="9"/>
       <c r="K176" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="177" spans="2:11">
@@ -7702,14 +7779,14 @@
         <v>11</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H177" s="9" t="s">
         <v>170</v>
       </c>
       <c r="J177" s="9"/>
       <c r="K177" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="178" spans="2:11">
@@ -7723,14 +7800,14 @@
         <v>100</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J178" s="9"/>
       <c r="K178" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="179" spans="2:11">
@@ -7744,17 +7821,17 @@
         <v>101</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I179" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J179" s="9"/>
       <c r="K179" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="180" spans="2:11">
@@ -7795,11 +7872,11 @@
         <v>1000</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H183" s="9"/>
       <c r="K183" s="10" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="184" spans="2:11">
@@ -7813,16 +7890,16 @@
         <v>1001</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H184" s="9"/>
       <c r="K184" s="10" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="185" spans="2:11">
       <c r="B185" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D185" s="12">
         <v>1001</v>
@@ -7831,16 +7908,16 @@
         <v>1010</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H185" s="9"/>
       <c r="K185" s="10" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="186" spans="2:11">
       <c r="B186" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D186" s="12">
         <v>1001</v>
@@ -7849,16 +7926,16 @@
         <v>1011</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H186" s="9"/>
       <c r="K186" s="10" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="187" spans="2:11">
       <c r="B187" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D187" s="12">
         <v>1001</v>
@@ -7867,16 +7944,16 @@
         <v>1100</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H187" s="9"/>
       <c r="K187" s="10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="188" spans="2:11">
       <c r="B188" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D188" s="12">
         <v>1001</v>
@@ -7885,16 +7962,16 @@
         <v>1101</v>
       </c>
       <c r="G188" s="13" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H188" s="9"/>
       <c r="K188" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="189" spans="2:11">
       <c r="B189" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D189" s="12">
         <v>1001</v>
@@ -7903,16 +7980,16 @@
         <v>1110</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H189" s="9"/>
       <c r="K189" s="10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="190" spans="2:11">
       <c r="B190" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D190" s="12">
         <v>1001</v>
@@ -7921,11 +7998,11 @@
         <v>1111</v>
       </c>
       <c r="G190" s="13" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H190" s="9"/>
       <c r="K190" s="10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="191" spans="2:11" ht="6.75" customHeight="1">
@@ -7933,7 +8010,7 @@
     </row>
     <row r="192" spans="2:11">
       <c r="B192" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D192" s="12">
         <v>1010</v>
@@ -7942,22 +8019,22 @@
         <v>0</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H192" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I192" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J192" s="19"/>
       <c r="K192" s="20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="193" spans="2:11">
       <c r="B193" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D193" s="12">
         <v>1010</v>
@@ -7966,22 +8043,22 @@
         <v>1</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H193" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I193" s="26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J193" s="9"/>
       <c r="K193" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="194" spans="2:11">
       <c r="B194" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D194" s="12">
         <v>1010</v>
@@ -7990,22 +8067,22 @@
         <v>10</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H194" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I194" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J194" s="9"/>
       <c r="K194" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="195" spans="2:11">
       <c r="B195" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D195" s="12">
         <v>1010</v>
@@ -8014,19 +8091,19 @@
         <v>11</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H195" s="9" t="s">
         <v>170</v>
       </c>
       <c r="J195" s="9"/>
       <c r="K195" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="196" spans="2:11">
       <c r="B196" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D196" s="12">
         <v>1010</v>
@@ -8035,19 +8112,19 @@
         <v>100</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H196" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J196" s="9"/>
       <c r="K196" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="197" spans="2:11">
       <c r="B197" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D197" s="12">
         <v>1010</v>
@@ -8056,22 +8133,22 @@
         <v>101</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I197" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J197" s="9"/>
       <c r="K197" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="198" spans="2:11">
       <c r="B198" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D198" s="12">
         <v>1010</v>
@@ -8083,7 +8160,7 @@
     </row>
     <row r="199" spans="2:11">
       <c r="B199" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D199" s="12">
         <v>1010</v>
@@ -8098,7 +8175,7 @@
     </row>
     <row r="201" spans="2:11">
       <c r="B201" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D201" s="12">
         <v>1010</v>
@@ -8107,17 +8184,17 @@
         <v>1000</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H201" s="9"/>
       <c r="J201" s="9"/>
       <c r="K201" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="202" spans="2:11">
       <c r="B202" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D202" s="12">
         <v>1010</v>
@@ -8126,17 +8203,17 @@
         <v>1001</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H202" s="9"/>
       <c r="J202" s="9"/>
       <c r="K202" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="203" spans="2:11">
       <c r="B203" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D203" s="12">
         <v>1010</v>
@@ -8145,17 +8222,17 @@
         <v>1010</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H203" s="9"/>
       <c r="J203" s="9"/>
       <c r="K203" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="204" spans="2:11">
       <c r="B204" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D204" s="12">
         <v>1010</v>
@@ -8164,17 +8241,17 @@
         <v>1011</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H204" s="9"/>
       <c r="J204" s="9"/>
       <c r="K204" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="205" spans="2:11">
       <c r="B205" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D205" s="12">
         <v>1010</v>
@@ -8183,17 +8260,17 @@
         <v>1100</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H205" s="9"/>
       <c r="J205" s="9"/>
       <c r="K205" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="206" spans="2:11">
       <c r="B206" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D206" s="12">
         <v>1010</v>
@@ -8202,17 +8279,17 @@
         <v>1101</v>
       </c>
       <c r="G206" s="13" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H206" s="9"/>
       <c r="J206" s="9"/>
       <c r="K206" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="207" spans="2:11">
       <c r="B207" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D207" s="12">
         <v>1010</v>
@@ -8221,17 +8298,17 @@
         <v>1110</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H207" s="9"/>
       <c r="J207" s="9"/>
       <c r="K207" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="208" spans="2:11">
       <c r="B208" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D208" s="12">
         <v>1010</v>
@@ -8240,12 +8317,12 @@
         <v>1111</v>
       </c>
       <c r="G208" s="13" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H208" s="9"/>
       <c r="J208" s="9"/>
       <c r="K208" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="209" spans="2:11" ht="6.75" customHeight="1">
@@ -8253,7 +8330,7 @@
     </row>
     <row r="210" spans="2:11">
       <c r="B210" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D210" s="12">
         <v>1011</v>
@@ -8262,22 +8339,22 @@
         <v>0</v>
       </c>
       <c r="G210" s="13" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H210" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I210" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J210" s="19"/>
       <c r="K210" s="20" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="211" spans="2:11">
       <c r="B211" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D211" s="12">
         <v>1011</v>
@@ -8286,22 +8363,22 @@
         <v>1</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H211" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I211" s="26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J211" s="9"/>
       <c r="K211" s="10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="212" spans="2:11">
       <c r="B212" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D212" s="12">
         <v>1011</v>
@@ -8310,22 +8387,22 @@
         <v>10</v>
       </c>
       <c r="G212" s="13" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H212" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I212" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J212" s="9"/>
       <c r="K212" s="10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="213" spans="2:11">
       <c r="B213" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D213" s="12">
         <v>1011</v>
@@ -8334,19 +8411,19 @@
         <v>11</v>
       </c>
       <c r="G213" s="13" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H213" s="9" t="s">
         <v>170</v>
       </c>
       <c r="J213" s="9"/>
       <c r="K213" s="10" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="214" spans="2:11">
       <c r="B214" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D214" s="12">
         <v>1011</v>
@@ -8355,19 +8432,19 @@
         <v>100</v>
       </c>
       <c r="G214" s="13" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H214" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J214" s="9"/>
       <c r="K214" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="215" spans="2:11">
       <c r="B215" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D215" s="12">
         <v>1011</v>
@@ -8376,22 +8453,22 @@
         <v>101</v>
       </c>
       <c r="G215" s="13" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H215" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I215" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J215" s="9"/>
       <c r="K215" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="216" spans="2:11">
       <c r="B216" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D216" s="12">
         <v>1011</v>
@@ -8406,7 +8483,7 @@
     </row>
     <row r="217" spans="2:11">
       <c r="B217" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D217" s="12">
         <v>1011</v>
@@ -8427,7 +8504,7 @@
     </row>
     <row r="219" spans="2:11">
       <c r="B219" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D219" s="12">
         <v>1011</v>
@@ -8436,17 +8513,17 @@
         <v>1000</v>
       </c>
       <c r="G219" s="13" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H219" s="9"/>
       <c r="J219" s="9"/>
       <c r="K219" s="10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="220" spans="2:11">
       <c r="B220" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D220" s="12">
         <v>1011</v>
@@ -8455,17 +8532,17 @@
         <v>1001</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H220" s="9"/>
       <c r="J220" s="9"/>
       <c r="K220" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="221" spans="2:11">
       <c r="B221" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D221" s="12">
         <v>1011</v>
@@ -8474,17 +8551,17 @@
         <v>1010</v>
       </c>
       <c r="G221" s="13" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H221" s="9"/>
       <c r="J221" s="9"/>
       <c r="K221" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="222" spans="2:11">
       <c r="B222" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D222" s="12">
         <v>1011</v>
@@ -8493,17 +8570,17 @@
         <v>1011</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H222" s="9"/>
       <c r="J222" s="9"/>
       <c r="K222" s="10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="223" spans="2:11">
       <c r="B223" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D223" s="12">
         <v>1011</v>
@@ -8512,17 +8589,17 @@
         <v>1100</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H223" s="9"/>
       <c r="J223" s="9"/>
       <c r="K223" s="10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="224" spans="2:11">
       <c r="B224" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D224" s="12">
         <v>1011</v>
@@ -8531,17 +8608,17 @@
         <v>1101</v>
       </c>
       <c r="G224" s="13" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H224" s="9"/>
       <c r="J224" s="9"/>
       <c r="K224" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="225" spans="2:11">
       <c r="B225" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D225" s="12">
         <v>1011</v>
@@ -8550,17 +8627,17 @@
         <v>1110</v>
       </c>
       <c r="G225" s="13" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H225" s="9"/>
       <c r="J225" s="9"/>
       <c r="K225" s="10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="226" spans="2:11">
       <c r="B226" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D226" s="12">
         <v>1011</v>
@@ -8569,12 +8646,12 @@
         <v>1111</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H226" s="9"/>
       <c r="J226" s="9"/>
       <c r="K226" s="10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="227" spans="2:11" ht="6.75" customHeight="1">
@@ -8582,7 +8659,7 @@
     </row>
     <row r="228" spans="2:11">
       <c r="B228" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D228" s="12">
         <v>1100</v>
@@ -8591,22 +8668,22 @@
         <v>0</v>
       </c>
       <c r="G228" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H228" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I228" s="19" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J228" s="9"/>
       <c r="K228" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="229" spans="2:11">
       <c r="B229" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D229" s="12">
         <v>1100</v>
@@ -8615,22 +8692,22 @@
         <v>1</v>
       </c>
       <c r="G229" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H229" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I229" s="26" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J229" s="9"/>
       <c r="K229" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="230" spans="2:11">
       <c r="B230" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D230" s="12">
         <v>1100</v>
@@ -8639,22 +8716,22 @@
         <v>10</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H230" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I230" s="26" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J230" s="9"/>
       <c r="K230" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="231" spans="2:11">
       <c r="B231" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D231" s="12">
         <v>1100</v>
@@ -8663,19 +8740,19 @@
         <v>11</v>
       </c>
       <c r="G231" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H231" s="9" t="s">
         <v>170</v>
       </c>
       <c r="J231" s="9"/>
       <c r="K231" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="232" spans="2:11">
       <c r="B232" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D232" s="12">
         <v>1100</v>
@@ -8684,19 +8761,19 @@
         <v>100</v>
       </c>
       <c r="G232" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H232" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J232" s="9"/>
       <c r="K232" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="233" spans="2:11">
       <c r="B233" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D233" s="12">
         <v>1100</v>
@@ -8705,22 +8782,22 @@
         <v>101</v>
       </c>
       <c r="G233" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H233" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I233" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J233" s="9"/>
       <c r="K233" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="234" spans="2:11">
       <c r="B234" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D234" s="12">
         <v>1100</v>
@@ -8735,7 +8812,7 @@
     </row>
     <row r="235" spans="2:11">
       <c r="B235" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D235" s="12">
         <v>1100</v>
@@ -8756,7 +8833,7 @@
     </row>
     <row r="237" spans="2:11">
       <c r="B237" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D237" s="12">
         <v>1100</v>
@@ -8765,17 +8842,17 @@
         <v>1000</v>
       </c>
       <c r="G237" s="13" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H237" s="9"/>
       <c r="J237" s="9"/>
       <c r="K237" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="238" spans="2:11">
       <c r="B238" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D238" s="12">
         <v>1100</v>
@@ -8784,17 +8861,17 @@
         <v>1001</v>
       </c>
       <c r="G238" s="13" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H238" s="9"/>
       <c r="J238" s="9"/>
       <c r="K238" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="239" spans="2:11">
       <c r="B239" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D239" s="12">
         <v>1100</v>
@@ -8803,17 +8880,17 @@
         <v>1010</v>
       </c>
       <c r="G239" s="13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H239" s="9"/>
       <c r="J239" s="9"/>
       <c r="K239" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="240" spans="2:11">
       <c r="B240" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D240" s="12">
         <v>1100</v>
@@ -8822,17 +8899,17 @@
         <v>1011</v>
       </c>
       <c r="G240" s="13" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H240" s="9"/>
       <c r="J240" s="9"/>
       <c r="K240" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="241" spans="2:11">
       <c r="B241" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D241" s="12">
         <v>1100</v>
@@ -8841,17 +8918,17 @@
         <v>1100</v>
       </c>
       <c r="G241" s="13" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H241" s="9"/>
       <c r="J241" s="9"/>
       <c r="K241" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="242" spans="2:11">
       <c r="B242" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D242" s="12">
         <v>1100</v>
@@ -8860,17 +8937,17 @@
         <v>1101</v>
       </c>
       <c r="G242" s="13" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H242" s="9"/>
       <c r="J242" s="9"/>
       <c r="K242" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="243" spans="2:11">
       <c r="B243" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D243" s="12">
         <v>1100</v>
@@ -8879,17 +8956,17 @@
         <v>1110</v>
       </c>
       <c r="G243" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H243" s="9"/>
       <c r="J243" s="9"/>
       <c r="K243" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="244" spans="2:11">
       <c r="B244" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D244" s="12">
         <v>1100</v>
@@ -8898,12 +8975,12 @@
         <v>1111</v>
       </c>
       <c r="G244" s="13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H244" s="9"/>
       <c r="J244" s="9"/>
       <c r="K244" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="245" spans="2:11" ht="6.75" customHeight="1">
@@ -8914,7 +8991,7 @@
     </row>
     <row r="246" spans="2:11">
       <c r="B246" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D246" s="12">
         <v>1101</v>
@@ -8923,22 +9000,22 @@
         <v>0</v>
       </c>
       <c r="G246" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H246" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I246" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J246" s="9"/>
       <c r="K246" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="247" spans="2:11">
       <c r="B247" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D247" s="12">
         <v>1101</v>
@@ -8947,22 +9024,22 @@
         <v>1</v>
       </c>
       <c r="G247" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H247" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I247" s="26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J247" s="9"/>
       <c r="K247" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="248" spans="2:11">
       <c r="B248" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D248" s="12">
         <v>1101</v>
@@ -8971,22 +9048,22 @@
         <v>10</v>
       </c>
       <c r="G248" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H248" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I248" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J248" s="9"/>
       <c r="K248" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="249" spans="2:11">
       <c r="B249" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D249" s="12">
         <v>1101</v>
@@ -8995,19 +9072,19 @@
         <v>11</v>
       </c>
       <c r="G249" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H249" s="9" t="s">
         <v>170</v>
       </c>
       <c r="J249" s="9"/>
       <c r="K249" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="250" spans="2:11">
       <c r="B250" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D250" s="12">
         <v>1101</v>
@@ -9016,19 +9093,19 @@
         <v>100</v>
       </c>
       <c r="G250" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H250" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J250" s="9"/>
       <c r="K250" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="251" spans="2:11">
       <c r="B251" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D251" s="12">
         <v>1101</v>
@@ -9037,22 +9114,22 @@
         <v>101</v>
       </c>
       <c r="G251" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H251" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I251" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J251" s="9"/>
       <c r="K251" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="252" spans="2:11">
       <c r="B252" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D252" s="12">
         <v>1101</v>
@@ -9067,7 +9144,7 @@
     </row>
     <row r="253" spans="2:11">
       <c r="B253" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D253" s="12">
         <v>1101</v>
@@ -9088,7 +9165,7 @@
     </row>
     <row r="255" spans="2:11">
       <c r="B255" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D255" s="12">
         <v>1101</v>
@@ -9097,17 +9174,17 @@
         <v>1000</v>
       </c>
       <c r="G255" s="13" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H255" s="9"/>
       <c r="J255" s="9"/>
       <c r="K255" s="10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="256" spans="2:11">
       <c r="B256" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D256" s="12">
         <v>1101</v>
@@ -9116,17 +9193,17 @@
         <v>1001</v>
       </c>
       <c r="G256" s="13" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H256" s="9"/>
       <c r="J256" s="9"/>
       <c r="K256" s="10" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="257" spans="2:11">
       <c r="B257" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D257" s="12">
         <v>1101</v>
@@ -9135,17 +9212,17 @@
         <v>1010</v>
       </c>
       <c r="G257" s="13" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H257" s="9"/>
       <c r="J257" s="9"/>
       <c r="K257" s="10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="258" spans="2:11">
       <c r="B258" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D258" s="12">
         <v>1101</v>
@@ -9154,17 +9231,17 @@
         <v>1011</v>
       </c>
       <c r="G258" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H258" s="9"/>
       <c r="J258" s="9"/>
       <c r="K258" s="10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="259" spans="2:11">
       <c r="B259" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D259" s="12">
         <v>1101</v>
@@ -9173,17 +9250,17 @@
         <v>1100</v>
       </c>
       <c r="G259" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H259" s="9"/>
       <c r="J259" s="9"/>
       <c r="K259" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="260" spans="2:11">
       <c r="B260" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D260" s="12">
         <v>1101</v>
@@ -9192,17 +9269,17 @@
         <v>1101</v>
       </c>
       <c r="G260" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H260" s="9"/>
       <c r="J260" s="9"/>
       <c r="K260" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="261" spans="2:11">
       <c r="B261" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D261" s="12">
         <v>1101</v>
@@ -9211,17 +9288,17 @@
         <v>1110</v>
       </c>
       <c r="G261" s="13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H261" s="9"/>
       <c r="J261" s="9"/>
       <c r="K261" s="10" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="262" spans="2:11">
       <c r="B262" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D262" s="12">
         <v>1101</v>
@@ -9230,12 +9307,12 @@
         <v>1111</v>
       </c>
       <c r="G262" s="13" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H262" s="9"/>
       <c r="J262" s="9"/>
       <c r="K262" s="10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="263" spans="2:11" ht="7.5" customHeight="1">
@@ -9246,7 +9323,7 @@
     </row>
     <row r="264" spans="2:11">
       <c r="B264" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D264" s="12">
         <v>1110</v>
@@ -9255,22 +9332,22 @@
         <v>0</v>
       </c>
       <c r="G264" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H264" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I264" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J264" s="19"/>
       <c r="K264" s="20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="265" spans="2:11">
       <c r="B265" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D265" s="12">
         <v>1110</v>
@@ -9279,22 +9356,22 @@
         <v>1</v>
       </c>
       <c r="G265" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H265" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I265" s="26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J265" s="9"/>
       <c r="K265" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="266" spans="2:11">
       <c r="B266" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D266" s="12">
         <v>1110</v>
@@ -9303,22 +9380,22 @@
         <v>10</v>
       </c>
       <c r="G266" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H266" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I266" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J266" s="9"/>
       <c r="K266" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="267" spans="2:11">
       <c r="B267" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D267" s="12">
         <v>1110</v>
@@ -9327,19 +9404,19 @@
         <v>11</v>
       </c>
       <c r="G267" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H267" s="9" t="s">
         <v>170</v>
       </c>
       <c r="J267" s="9"/>
       <c r="K267" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="268" spans="2:11">
       <c r="B268" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D268" s="12">
         <v>1110</v>
@@ -9348,19 +9425,19 @@
         <v>100</v>
       </c>
       <c r="G268" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H268" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J268" s="9"/>
       <c r="K268" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="269" spans="2:11">
       <c r="B269" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D269" s="12">
         <v>1110</v>
@@ -9369,22 +9446,22 @@
         <v>101</v>
       </c>
       <c r="G269" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H269" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I269" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J269" s="9"/>
       <c r="K269" s="10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="270" spans="2:11">
       <c r="B270" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D270" s="12">
         <v>1110</v>
@@ -9399,7 +9476,7 @@
     </row>
     <row r="271" spans="2:11">
       <c r="B271" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D271" s="12">
         <v>1110</v>
@@ -9420,7 +9497,7 @@
     </row>
     <row r="273" spans="2:11">
       <c r="B273" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D273" s="12">
         <v>1110</v>
@@ -9429,17 +9506,17 @@
         <v>1000</v>
       </c>
       <c r="G273" s="13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H273" s="9"/>
       <c r="J273" s="9"/>
       <c r="K273" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="274" spans="2:11">
       <c r="B274" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D274" s="12">
         <v>1110</v>
@@ -9448,17 +9525,17 @@
         <v>1001</v>
       </c>
       <c r="G274" s="13" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H274" s="9"/>
       <c r="J274" s="9"/>
       <c r="K274" s="10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="275" spans="2:11">
       <c r="B275" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D275" s="12">
         <v>1110</v>
@@ -9467,17 +9544,17 @@
         <v>1010</v>
       </c>
       <c r="G275" s="13" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H275" s="9"/>
       <c r="J275" s="9"/>
       <c r="K275" s="10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="276" spans="2:11">
       <c r="B276" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D276" s="12">
         <v>1110</v>
@@ -9486,17 +9563,17 @@
         <v>1011</v>
       </c>
       <c r="G276" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H276" s="9"/>
       <c r="J276" s="9"/>
       <c r="K276" s="10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="277" spans="2:11">
       <c r="B277" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D277" s="12">
         <v>1110</v>
@@ -9505,17 +9582,17 @@
         <v>1100</v>
       </c>
       <c r="G277" s="13" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H277" s="9"/>
       <c r="J277" s="9"/>
       <c r="K277" s="10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="278" spans="2:11">
       <c r="B278" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D278" s="12">
         <v>1110</v>
@@ -9524,17 +9601,17 @@
         <v>1101</v>
       </c>
       <c r="G278" s="13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H278" s="9"/>
       <c r="J278" s="9"/>
       <c r="K278" s="10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="279" spans="2:11">
       <c r="B279" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D279" s="12">
         <v>1110</v>
@@ -9543,17 +9620,17 @@
         <v>1110</v>
       </c>
       <c r="G279" s="13" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H279" s="9"/>
       <c r="J279" s="9"/>
       <c r="K279" s="10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="280" spans="2:11">
       <c r="B280" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D280" s="12">
         <v>1110</v>
@@ -9562,12 +9639,12 @@
         <v>1111</v>
       </c>
       <c r="G280" s="13" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H280" s="9"/>
       <c r="J280" s="9"/>
       <c r="K280" s="10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="281" spans="2:11" ht="7.5" customHeight="1">
@@ -9578,7 +9655,7 @@
     </row>
     <row r="282" spans="2:11">
       <c r="B282" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D282" s="12">
         <v>1111</v>
@@ -9587,22 +9664,22 @@
         <v>0</v>
       </c>
       <c r="G282" s="13" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H282" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I282" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J282" s="19"/>
       <c r="K282" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="283" spans="2:11">
       <c r="B283" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D283" s="12">
         <v>1111</v>
@@ -9611,22 +9688,22 @@
         <v>1</v>
       </c>
       <c r="G283" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H283" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I283" s="26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J283" s="9"/>
       <c r="K283" s="10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="284" spans="2:11">
       <c r="B284" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D284" s="12">
         <v>1111</v>
@@ -9635,22 +9712,22 @@
         <v>10</v>
       </c>
       <c r="G284" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H284" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I284" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J284" s="9"/>
       <c r="K284" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="285" spans="2:11">
       <c r="B285" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D285" s="12">
         <v>1111</v>
@@ -9659,19 +9736,19 @@
         <v>11</v>
       </c>
       <c r="G285" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H285" s="9" t="s">
         <v>170</v>
       </c>
       <c r="J285" s="9"/>
       <c r="K285" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="286" spans="2:11">
       <c r="B286" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D286" s="12">
         <v>1111</v>
@@ -9680,19 +9757,19 @@
         <v>100</v>
       </c>
       <c r="G286" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H286" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J286" s="9"/>
       <c r="K286" s="10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="287" spans="2:11">
       <c r="B287" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D287" s="12">
         <v>1111</v>
@@ -9701,22 +9778,22 @@
         <v>101</v>
       </c>
       <c r="G287" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H287" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I287" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J287" s="9"/>
       <c r="K287" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="288" spans="2:11">
       <c r="B288" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D288" s="12">
         <v>1111</v>
@@ -9731,7 +9808,7 @@
     </row>
     <row r="289" spans="2:11">
       <c r="B289" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D289" s="12">
         <v>1111</v>
@@ -9752,7 +9829,7 @@
     </row>
     <row r="291" spans="2:11">
       <c r="B291" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D291" s="12">
         <v>1111</v>
@@ -9761,17 +9838,17 @@
         <v>1000</v>
       </c>
       <c r="G291" s="13" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H291" s="9"/>
       <c r="J291" s="9"/>
       <c r="K291" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="292" spans="2:11">
       <c r="B292" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D292" s="12">
         <v>1111</v>
@@ -9780,17 +9857,17 @@
         <v>1001</v>
       </c>
       <c r="G292" s="13" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H292" s="9"/>
       <c r="J292" s="9"/>
       <c r="K292" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="293" spans="2:11">
       <c r="B293" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D293" s="12">
         <v>1111</v>
@@ -9799,17 +9876,17 @@
         <v>1010</v>
       </c>
       <c r="G293" s="13" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H293" s="9"/>
       <c r="J293" s="9"/>
       <c r="K293" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="294" spans="2:11">
       <c r="B294" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D294" s="12">
         <v>1111</v>
@@ -9818,17 +9895,17 @@
         <v>1011</v>
       </c>
       <c r="G294" s="13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H294" s="9"/>
       <c r="J294" s="9"/>
       <c r="K294" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="295" spans="2:11">
       <c r="B295" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D295" s="12">
         <v>1111</v>
@@ -9837,17 +9914,17 @@
         <v>1100</v>
       </c>
       <c r="G295" s="13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H295" s="9"/>
       <c r="J295" s="9"/>
       <c r="K295" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="296" spans="2:11">
       <c r="B296" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D296" s="12">
         <v>1111</v>
@@ -9856,17 +9933,17 @@
         <v>1101</v>
       </c>
       <c r="G296" s="13" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H296" s="9"/>
       <c r="J296" s="9"/>
       <c r="K296" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="297" spans="2:11">
       <c r="B297" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D297" s="12">
         <v>1111</v>
@@ -9875,17 +9952,17 @@
         <v>1110</v>
       </c>
       <c r="G297" s="13" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H297" s="9"/>
       <c r="J297" s="9"/>
       <c r="K297" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="298" spans="2:11">
       <c r="B298" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D298" s="12">
         <v>1111</v>
@@ -9894,17 +9971,19 @@
         <v>1111</v>
       </c>
       <c r="G298" s="13" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H298" s="9"/>
       <c r="J298" s="9"/>
       <c r="K298" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="299" spans="2:11" ht="6.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B12:K12"/>
     <mergeCell ref="G3:H10"/>
@@ -9915,4 +9994,139 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="56" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A16A0A8-EF4A-429D-AF5B-E5B22A4B0BEC}">
+  <dimension ref="B3:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="3" width="5.25" style="29" customWidth="1"/>
+    <col min="4" max="5" width="9" style="29"/>
+    <col min="6" max="6" width="1.25" customWidth="1"/>
+    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.25" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>734</v>
+      </c>
+      <c r="G3" t="s">
+        <v>735</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="29" t="s">
+        <v>730</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>731</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>730</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="G5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="G6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="G7" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="G8" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="G9" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="G10" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="G11" t="s">
+        <v>742</v>
+      </c>
+      <c r="I11" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="G12" t="s">
+        <v>742</v>
+      </c>
+      <c r="I12" t="s">
+        <v>743</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>